--- a/SUMMARY SHEETS/LLC_Genus_2PSummary.xlsx
+++ b/SUMMARY SHEETS/LLC_Genus_2PSummary.xlsx
@@ -635,28 +635,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00962</v>
+        <v>0.00000962</v>
       </c>
       <c r="F2" t="n">
         <v>-18.8374596340151</v>
       </c>
       <c r="G2" t="n">
-        <v>0.103552206673843</v>
+        <v>0.000103552206673843</v>
       </c>
       <c r="H2" t="n">
-        <v>0.083007760625</v>
+        <v>0.000083007760625</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.56365534008342</v>
+        <v>-0.00156365534008342</v>
       </c>
       <c r="J2" t="n">
-        <v>-6.25462136033369</v>
+        <v>-0.00625462136033369</v>
       </c>
       <c r="K2" t="n">
-        <v>25.5296419521439</v>
+        <v>0.0255296419521439</v>
       </c>
       <c r="L2" t="n">
-        <v>55.8183440814496</v>
+        <v>0.0558183440814496</v>
       </c>
       <c r="M2" t="n">
         <v>2.18641311876143</v>
@@ -665,7 +665,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>18.6061146938165</v>
+        <v>0.0186061146938165</v>
       </c>
       <c r="P2" t="n">
         <v>0.728804372920477</v>
@@ -688,28 +688,28 @@
         <v>29.6017222820237</v>
       </c>
       <c r="E3" t="n">
-        <v>0.15639552125</v>
+        <v>0.00015639552125</v>
       </c>
       <c r="F3" t="n">
         <v>-8.07319698600646</v>
       </c>
       <c r="G3" t="n">
-        <v>4.62957678619483</v>
+        <v>0.00462957678619483</v>
       </c>
       <c r="H3" t="n">
-        <v>0.292004125041667</v>
+        <v>0.000292004125041667</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.35740682218784</v>
+        <v>-0.00235740682218784</v>
       </c>
       <c r="J3" t="n">
-        <v>-9.42962728875135</v>
+        <v>-0.00942962728875135</v>
       </c>
       <c r="K3" t="n">
-        <v>25.5296419521439</v>
+        <v>0.0255296419521439</v>
       </c>
       <c r="L3" t="n">
-        <v>55.8183440814496</v>
+        <v>0.0558183440814496</v>
       </c>
       <c r="M3" t="n">
         <v>2.18641311876143</v>
@@ -718,7 +718,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>18.6061146938165</v>
+        <v>0.0186061146938165</v>
       </c>
       <c r="P3" t="n">
         <v>0.728804372920477</v>
@@ -741,28 +741,28 @@
         <v>37.6749192680301</v>
       </c>
       <c r="E4" t="n">
-        <v>0.427612728833333</v>
+        <v>0.000427612728833333</v>
       </c>
       <c r="F4" t="n">
         <v>26.9106566200215</v>
       </c>
       <c r="G4" t="n">
-        <v>16.1102750367779</v>
+        <v>0.0161102750367779</v>
       </c>
       <c r="H4" t="n">
-        <v>0.431482115916667</v>
+        <v>0.000431482115916667</v>
       </c>
       <c r="I4" t="n">
-        <v>11.6114670591137</v>
+        <v>0.0116114670591137</v>
       </c>
       <c r="J4" t="n">
-        <v>46.445868236455</v>
+        <v>0.046445868236455</v>
       </c>
       <c r="K4" t="n">
-        <v>25.5296419521439</v>
+        <v>0.0255296419521439</v>
       </c>
       <c r="L4" t="n">
-        <v>55.8183440814496</v>
+        <v>0.0558183440814496</v>
       </c>
       <c r="M4" t="n">
         <v>2.18641311876143</v>
@@ -771,7 +771,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>18.6061146938165</v>
+        <v>0.0186061146938165</v>
       </c>
       <c r="P4" t="n">
         <v>0.728804372920477</v>
@@ -794,28 +794,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.435351503</v>
+        <v>0.000435351503</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>4.68623792249731</v>
+        <v>0.00468623792249731</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2176757515</v>
+        <v>0.0002176757515</v>
       </c>
       <c r="I5" t="n">
-        <v>2.34311896124865</v>
+        <v>0.00234311896124865</v>
       </c>
       <c r="J5" t="n">
-        <v>9.37247584499462</v>
+        <v>0.00937247584499462</v>
       </c>
       <c r="K5" t="n">
-        <v>25.5296419521439</v>
+        <v>0.0255296419521439</v>
       </c>
       <c r="L5" t="n">
-        <v>55.8183440814496</v>
+        <v>0.0558183440814496</v>
       </c>
       <c r="M5" t="n">
         <v>2.18641311876143</v>
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>18.6061146938165</v>
+        <v>0.0186061146938165</v>
       </c>
       <c r="P5" t="n">
         <v>0.728804372920477</v>
@@ -914,28 +914,28 @@
         <v>134.553283100108</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06125</v>
+        <v>0.00006125</v>
       </c>
       <c r="F2" t="n">
         <v>-44.1334768568353</v>
       </c>
       <c r="G2" t="n">
-        <v>8.2413885898816</v>
+        <v>0.00824138858988159</v>
       </c>
       <c r="H2" t="n">
-        <v>0.270731118634929</v>
+        <v>0.000270731118634929</v>
       </c>
       <c r="I2" t="n">
-        <v>-11.9483055586998</v>
+        <v>-0.0119483055586998</v>
       </c>
       <c r="J2" t="n">
-        <v>-179.224583380497</v>
+        <v>-0.179224583380497</v>
       </c>
       <c r="K2" t="n">
-        <v>2289.86151330808</v>
+        <v>2.28986151330808</v>
       </c>
       <c r="L2" t="n">
-        <v>13654.3028637398</v>
+        <v>13.6543028637398</v>
       </c>
       <c r="M2" t="n">
         <v>5.96293827569244</v>
@@ -944,7 +944,7 @@
         <v>0.8</v>
       </c>
       <c r="O2" t="n">
-        <v>17067.8785796747</v>
+        <v>17.0678785796747</v>
       </c>
       <c r="P2" t="n">
         <v>7.45367284461555</v>
@@ -967,28 +967,28 @@
         <v>178.686759956943</v>
       </c>
       <c r="E3" t="n">
-        <v>0.480212237269858</v>
+        <v>0.000480212237269858</v>
       </c>
       <c r="F3" t="n">
         <v>19.0168640114819</v>
       </c>
       <c r="G3" t="n">
-        <v>85.8075687694257</v>
+        <v>0.0858075687694257</v>
       </c>
       <c r="H3" t="n">
-        <v>0.792661284225405</v>
+        <v>0.000792661284225405</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0739318492811</v>
+        <v>0.0150739318492811</v>
       </c>
       <c r="J3" t="n">
-        <v>226.108977739216</v>
+        <v>0.226108977739217</v>
       </c>
       <c r="K3" t="n">
-        <v>2289.86151330808</v>
+        <v>2.28986151330808</v>
       </c>
       <c r="L3" t="n">
-        <v>13654.3028637398</v>
+        <v>13.6543028637398</v>
       </c>
       <c r="M3" t="n">
         <v>5.96293827569244</v>
@@ -997,7 +997,7 @@
         <v>0.8</v>
       </c>
       <c r="O3" t="n">
-        <v>17067.8785796747</v>
+        <v>17.0678785796747</v>
       </c>
       <c r="P3" t="n">
         <v>7.45367284461555</v>
@@ -1020,28 +1020,28 @@
         <v>159.669895945461</v>
       </c>
       <c r="E4" t="n">
-        <v>1.10511033118095</v>
+        <v>0.00110511033118095</v>
       </c>
       <c r="F4" t="n">
         <v>44.8510943667025</v>
       </c>
       <c r="G4" t="n">
-        <v>176.452851587917</v>
+        <v>0.176452851587917</v>
       </c>
       <c r="H4" t="n">
-        <v>1.28984451012751</v>
+        <v>0.00128984451012751</v>
       </c>
       <c r="I4" t="n">
-        <v>57.8509378421023</v>
+        <v>0.0578509378421023</v>
       </c>
       <c r="J4" t="n">
-        <v>867.764067631534</v>
+        <v>0.867764067631535</v>
       </c>
       <c r="K4" t="n">
-        <v>2289.86151330808</v>
+        <v>2.28986151330808</v>
       </c>
       <c r="L4" t="n">
-        <v>13654.3028637398</v>
+        <v>13.6543028637398</v>
       </c>
       <c r="M4" t="n">
         <v>5.96293827569244</v>
@@ -1050,7 +1050,7 @@
         <v>0.8</v>
       </c>
       <c r="O4" t="n">
-        <v>17067.8785796747</v>
+        <v>17.0678785796747</v>
       </c>
       <c r="P4" t="n">
         <v>7.45367284461555</v>
@@ -1073,28 +1073,28 @@
         <v>114.818801578759</v>
       </c>
       <c r="E5" t="n">
-        <v>1.47457868907407</v>
+        <v>0.00147457868907407</v>
       </c>
       <c r="F5" t="n">
         <v>28.7047003946897</v>
       </c>
       <c r="G5" t="n">
-        <v>169.309357913062</v>
+        <v>0.169309357913062</v>
       </c>
       <c r="H5" t="n">
-        <v>2.06638880853704</v>
+        <v>0.00206638880853704</v>
       </c>
       <c r="I5" t="n">
-        <v>59.3150716479954</v>
+        <v>0.0593150716479954</v>
       </c>
       <c r="J5" t="n">
-        <v>889.726074719931</v>
+        <v>0.889726074719931</v>
       </c>
       <c r="K5" t="n">
-        <v>2289.86151330808</v>
+        <v>2.28986151330808</v>
       </c>
       <c r="L5" t="n">
-        <v>13654.3028637398</v>
+        <v>13.6543028637398</v>
       </c>
       <c r="M5" t="n">
         <v>5.96293827569244</v>
@@ -1103,7 +1103,7 @@
         <v>0.8</v>
       </c>
       <c r="O5" t="n">
-        <v>17067.8785796747</v>
+        <v>17.0678785796747</v>
       </c>
       <c r="P5" t="n">
         <v>7.45367284461555</v>
@@ -1126,28 +1126,28 @@
         <v>86.1141011840689</v>
       </c>
       <c r="E6" t="n">
-        <v>2.658198928</v>
+        <v>0.002658198928</v>
       </c>
       <c r="F6" t="n">
         <v>26.9106566200215</v>
       </c>
       <c r="G6" t="n">
-        <v>228.908411453175</v>
+        <v>0.228908411453175</v>
       </c>
       <c r="H6" t="n">
-        <v>2.802378639</v>
+        <v>0.002802378639</v>
       </c>
       <c r="I6" t="n">
-        <v>75.4138492734123</v>
+        <v>0.0754138492734122</v>
       </c>
       <c r="J6" t="n">
-        <v>1131.20773910118</v>
+        <v>1.13120773910118</v>
       </c>
       <c r="K6" t="n">
-        <v>2289.86151330808</v>
+        <v>2.28986151330808</v>
       </c>
       <c r="L6" t="n">
-        <v>13654.3028637398</v>
+        <v>13.6543028637398</v>
       </c>
       <c r="M6" t="n">
         <v>5.96293827569244</v>
@@ -1156,7 +1156,7 @@
         <v>0.8</v>
       </c>
       <c r="O6" t="n">
-        <v>17067.8785796747</v>
+        <v>17.0678785796747</v>
       </c>
       <c r="P6" t="n">
         <v>7.45367284461555</v>
@@ -1179,28 +1179,28 @@
         <v>59.2034445640474</v>
       </c>
       <c r="E7" t="n">
-        <v>2.94655835</v>
+        <v>0.00294655835</v>
       </c>
       <c r="F7" t="n">
         <v>48.4391819160388</v>
       </c>
       <c r="G7" t="n">
-        <v>174.446403928956</v>
+        <v>0.174446403928956</v>
       </c>
       <c r="H7" t="n">
-        <v>1.874444095</v>
+        <v>0.001874444095</v>
       </c>
       <c r="I7" t="n">
-        <v>90.7965385091496</v>
+        <v>0.0907965385091496</v>
       </c>
       <c r="J7" t="n">
-        <v>1361.94807763724</v>
+        <v>1.36194807763724</v>
       </c>
       <c r="K7" t="n">
-        <v>2289.86151330808</v>
+        <v>2.28986151330808</v>
       </c>
       <c r="L7" t="n">
-        <v>13654.3028637398</v>
+        <v>13.6543028637398</v>
       </c>
       <c r="M7" t="n">
         <v>5.96293827569244</v>
@@ -1209,7 +1209,7 @@
         <v>0.8</v>
       </c>
       <c r="O7" t="n">
-        <v>17067.8785796747</v>
+        <v>17.0678785796747</v>
       </c>
       <c r="P7" t="n">
         <v>7.45367284461555</v>
@@ -1232,28 +1232,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>0.80232984</v>
+        <v>0.00080232984</v>
       </c>
       <c r="F8" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G8" t="n">
-        <v>8.63648912809473</v>
+        <v>0.00863648912809473</v>
       </c>
       <c r="H8" t="n">
-        <v>1.539556948</v>
+        <v>0.001539556948</v>
       </c>
       <c r="I8" t="n">
-        <v>-16.5721953498385</v>
+        <v>-0.0165721953498385</v>
       </c>
       <c r="J8" t="n">
-        <v>-248.582930247578</v>
+        <v>-0.248582930247578</v>
       </c>
       <c r="K8" t="n">
-        <v>2289.86151330808</v>
+        <v>2.28986151330808</v>
       </c>
       <c r="L8" t="n">
-        <v>13654.3028637398</v>
+        <v>13.6543028637398</v>
       </c>
       <c r="M8" t="n">
         <v>5.96293827569244</v>
@@ -1262,7 +1262,7 @@
         <v>0.8</v>
       </c>
       <c r="O8" t="n">
-        <v>17067.8785796747</v>
+        <v>17.0678785796747</v>
       </c>
       <c r="P8" t="n">
         <v>7.45367284461555</v>
@@ -1285,28 +1285,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E9" t="n">
-        <v>2.276784056</v>
+        <v>0.002276784056</v>
       </c>
       <c r="F9" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G9" t="n">
-        <v>49.0158031431647</v>
+        <v>0.0490158031431647</v>
       </c>
       <c r="H9" t="n">
-        <v>1.9133559045</v>
+        <v>0.0019133559045</v>
       </c>
       <c r="I9" t="n">
-        <v>20.5958654951561</v>
+        <v>0.0205958654951561</v>
       </c>
       <c r="J9" t="n">
-        <v>308.937982427341</v>
+        <v>0.308937982427341</v>
       </c>
       <c r="K9" t="n">
-        <v>2289.86151330808</v>
+        <v>2.28986151330808</v>
       </c>
       <c r="L9" t="n">
-        <v>13654.3028637398</v>
+        <v>13.6543028637398</v>
       </c>
       <c r="M9" t="n">
         <v>5.96293827569244</v>
@@ -1315,7 +1315,7 @@
         <v>0.8</v>
       </c>
       <c r="O9" t="n">
-        <v>17067.8785796747</v>
+        <v>17.0678785796747</v>
       </c>
       <c r="P9" t="n">
         <v>7.45367284461555</v>
@@ -1338,28 +1338,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E10" t="n">
-        <v>1.549927753</v>
+        <v>0.001549927753</v>
       </c>
       <c r="F10" t="n">
         <v>-53.8213132400431</v>
       </c>
       <c r="G10" t="n">
-        <v>16.6838294187298</v>
+        <v>0.0166838294187298</v>
       </c>
       <c r="H10" t="n">
-        <v>6.9029438135</v>
+        <v>0.0069029438135</v>
       </c>
       <c r="I10" t="n">
-        <v>-371.525501264801</v>
+        <v>-0.371525501264801</v>
       </c>
       <c r="J10" t="n">
-        <v>-5572.88251897201</v>
+        <v>-5.57288251897201</v>
       </c>
       <c r="K10" t="n">
-        <v>2289.86151330808</v>
+        <v>2.28986151330808</v>
       </c>
       <c r="L10" t="n">
-        <v>13654.3028637398</v>
+        <v>13.6543028637398</v>
       </c>
       <c r="M10" t="n">
         <v>5.96293827569244</v>
@@ -1368,7 +1368,7 @@
         <v>0.8</v>
       </c>
       <c r="O10" t="n">
-        <v>17067.8785796747</v>
+        <v>17.0678785796747</v>
       </c>
       <c r="P10" t="n">
         <v>7.45367284461555</v>
@@ -1391,28 +1391,28 @@
         <v>64.5855758880517</v>
       </c>
       <c r="E11" t="n">
-        <v>12.255959874</v>
+        <v>0.012255959874</v>
       </c>
       <c r="F11" t="n">
         <v>53.8213132400431</v>
       </c>
       <c r="G11" t="n">
-        <v>791.558226523143</v>
+        <v>0.791558226523143</v>
       </c>
       <c r="H11" t="n">
-        <v>7.4390168495</v>
+        <v>0.0074390168495</v>
       </c>
       <c r="I11" t="n">
-        <v>400.377656054898</v>
+        <v>0.400377656054898</v>
       </c>
       <c r="J11" t="n">
-        <v>6005.66484082347</v>
+        <v>6.00566484082347</v>
       </c>
       <c r="K11" t="n">
-        <v>2289.86151330808</v>
+        <v>2.28986151330808</v>
       </c>
       <c r="L11" t="n">
-        <v>13654.3028637398</v>
+        <v>13.6543028637398</v>
       </c>
       <c r="M11" t="n">
         <v>5.96293827569244</v>
@@ -1421,7 +1421,7 @@
         <v>0.8</v>
       </c>
       <c r="O11" t="n">
-        <v>17067.8785796747</v>
+        <v>17.0678785796747</v>
       </c>
       <c r="P11" t="n">
         <v>7.45367284461555</v>
@@ -1444,16 +1444,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E12" t="n">
-        <v>2.622073825</v>
+        <v>0.002622073825</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>28.2246913347686</v>
+        <v>0.0282246913347686</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3419795975</v>
+        <v>0.0033419795975</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1462,10 +1462,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>2289.86151330808</v>
+        <v>2.28986151330808</v>
       </c>
       <c r="L12" t="n">
-        <v>13654.3028637398</v>
+        <v>13.6543028637398</v>
       </c>
       <c r="M12" t="n">
         <v>5.96293827569244</v>
@@ -1474,7 +1474,7 @@
         <v>0.8</v>
       </c>
       <c r="O12" t="n">
-        <v>17067.8785796747</v>
+        <v>17.0678785796747</v>
       </c>
       <c r="P12" t="n">
         <v>7.45367284461555</v>
@@ -1497,16 +1497,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E13" t="n">
-        <v>4.06188537</v>
+        <v>0.00406188537</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>43.7232009687836</v>
+        <v>0.0437232009687836</v>
       </c>
       <c r="H13" t="n">
-        <v>4.497104323</v>
+        <v>0.004497104323</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1515,10 +1515,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>2289.86151330808</v>
+        <v>2.28986151330808</v>
       </c>
       <c r="L13" t="n">
-        <v>13654.3028637398</v>
+        <v>13.6543028637398</v>
       </c>
       <c r="M13" t="n">
         <v>5.96293827569244</v>
@@ -1527,7 +1527,7 @@
         <v>0.8</v>
       </c>
       <c r="O13" t="n">
-        <v>17067.8785796747</v>
+        <v>17.0678785796747</v>
       </c>
       <c r="P13" t="n">
         <v>7.45367284461555</v>
@@ -1550,28 +1550,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E14" t="n">
-        <v>4.932323276</v>
+        <v>0.004932323276</v>
       </c>
       <c r="F14" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G14" t="n">
-        <v>53.0928232077503</v>
+        <v>0.0530928232077503</v>
       </c>
       <c r="H14" t="n">
-        <v>10.669152996</v>
+        <v>0.010669152996</v>
       </c>
       <c r="I14" t="n">
-        <v>-114.845565080732</v>
+        <v>-0.114845565080732</v>
       </c>
       <c r="J14" t="n">
-        <v>-1722.68347621098</v>
+        <v>-1.72268347621098</v>
       </c>
       <c r="K14" t="n">
-        <v>2289.86151330808</v>
+        <v>2.28986151330808</v>
       </c>
       <c r="L14" t="n">
-        <v>13654.3028637398</v>
+        <v>13.6543028637398</v>
       </c>
       <c r="M14" t="n">
         <v>5.96293827569244</v>
@@ -1580,7 +1580,7 @@
         <v>0.8</v>
       </c>
       <c r="O14" t="n">
-        <v>17067.8785796747</v>
+        <v>17.0678785796747</v>
       </c>
       <c r="P14" t="n">
         <v>7.45367284461555</v>
@@ -1603,28 +1603,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E15" t="n">
-        <v>16.405982716</v>
+        <v>0.016405982716</v>
       </c>
       <c r="F15" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G15" t="n">
-        <v>353.196613907427</v>
+        <v>0.353196613907427</v>
       </c>
       <c r="H15" t="n">
-        <v>12.96708235</v>
+        <v>0.01296708235</v>
       </c>
       <c r="I15" t="n">
-        <v>139.581080193757</v>
+        <v>0.139581080193757</v>
       </c>
       <c r="J15" t="n">
-        <v>2093.71620290635</v>
+        <v>2.09371620290635</v>
       </c>
       <c r="K15" t="n">
-        <v>2289.86151330808</v>
+        <v>2.28986151330808</v>
       </c>
       <c r="L15" t="n">
-        <v>13654.3028637398</v>
+        <v>13.6543028637398</v>
       </c>
       <c r="M15" t="n">
         <v>5.96293827569244</v>
@@ -1633,7 +1633,7 @@
         <v>0.8</v>
       </c>
       <c r="O15" t="n">
-        <v>17067.8785796747</v>
+        <v>17.0678785796747</v>
       </c>
       <c r="P15" t="n">
         <v>7.45367284461555</v>
@@ -1656,28 +1656,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E16" t="n">
-        <v>9.528181984</v>
+        <v>0.009528181984</v>
       </c>
       <c r="F16" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G16" t="n">
-        <v>102.5638534338</v>
+        <v>0.1025638534338</v>
       </c>
       <c r="H16" t="n">
-        <v>4.764090992</v>
+        <v>0.004764090992</v>
       </c>
       <c r="I16" t="n">
-        <v>51.2819267168999</v>
+        <v>0.0512819267168999</v>
       </c>
       <c r="J16" t="n">
-        <v>769.228900753498</v>
+        <v>0.769228900753498</v>
       </c>
       <c r="K16" t="n">
-        <v>2289.86151330808</v>
+        <v>2.28986151330808</v>
       </c>
       <c r="L16" t="n">
-        <v>13654.3028637398</v>
+        <v>13.6543028637398</v>
       </c>
       <c r="M16" t="n">
         <v>5.96293827569244</v>
@@ -1686,7 +1686,7 @@
         <v>0.8</v>
       </c>
       <c r="O16" t="n">
-        <v>17067.8785796747</v>
+        <v>17.0678785796747</v>
       </c>
       <c r="P16" t="n">
         <v>7.45367284461555</v>
@@ -1776,28 +1776,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0043</v>
+        <v>0.0000043</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.046286329386437</v>
+        <v>0.000046286329386437</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00215</v>
+        <v>0.00000215</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0231431646932185</v>
+        <v>0.0000231431646932185</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0231431646932185</v>
+        <v>0.0000231431646932185</v>
       </c>
       <c r="K2" t="n">
-        <v>0.046286329386437</v>
+        <v>0.000046286329386437</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0231431646932185</v>
+        <v>0.0000231431646932185</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -1806,7 +1806,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00192859705776821</v>
+        <v>0.00000192859705776821</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -1896,16 +1896,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>2.695629268</v>
+        <v>0.002695629268</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>29.0164614424112</v>
+        <v>0.0290164614424112</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6016452875</v>
+        <v>0.0036016452875</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1914,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>77.538111679225</v>
+        <v>0.077538111679225</v>
       </c>
       <c r="L2" t="n">
-        <v>48.5216502368138</v>
+        <v>0.0485216502368138</v>
       </c>
       <c r="M2" t="n">
         <v>0.625778074626679</v>
@@ -1926,7 +1926,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>8.08694170613563</v>
+        <v>0.00808694170613563</v>
       </c>
       <c r="P2" t="n">
         <v>0.104296345771113</v>
@@ -1949,28 +1949,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>4.507661307</v>
+        <v>0.004507661307</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>48.5216502368138</v>
+        <v>0.0485216502368138</v>
       </c>
       <c r="H3" t="n">
-        <v>2.2538306535</v>
+        <v>0.0022538306535</v>
       </c>
       <c r="I3" t="n">
-        <v>24.2608251184069</v>
+        <v>0.0242608251184069</v>
       </c>
       <c r="J3" t="n">
-        <v>48.5216502368138</v>
+        <v>0.0485216502368138</v>
       </c>
       <c r="K3" t="n">
-        <v>77.538111679225</v>
+        <v>0.077538111679225</v>
       </c>
       <c r="L3" t="n">
-        <v>48.5216502368138</v>
+        <v>0.0485216502368138</v>
       </c>
       <c r="M3" t="n">
         <v>0.625778074626679</v>
@@ -1979,7 +1979,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>8.08694170613563</v>
+        <v>0.00808694170613563</v>
       </c>
       <c r="P3" t="n">
         <v>0.104296345771113</v>
@@ -2069,16 +2069,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0164</v>
+        <v>0.0000164</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.176533907427341</v>
+        <v>0.000176533907427341</v>
       </c>
       <c r="H2" t="n">
-        <v>0.483806265</v>
+        <v>0.000483806265</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>43.9919593649085</v>
+        <v>0.0439919593649085</v>
       </c>
       <c r="L2" t="n">
-        <v>50.3644859257266</v>
+        <v>0.0503644859257266</v>
       </c>
       <c r="M2" t="n">
         <v>1.14485662045554</v>
@@ -2099,7 +2099,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>12.5911214814316</v>
+        <v>0.0125911214814316</v>
       </c>
       <c r="P2" t="n">
         <v>0.286214155113885</v>
@@ -2122,16 +2122,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.95121253</v>
+        <v>0.00095121253</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>10.2391015069968</v>
+        <v>0.0102391015069968</v>
       </c>
       <c r="H3" t="n">
-        <v>2.0352265125</v>
+        <v>0.0020352265125</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>43.9919593649085</v>
+        <v>0.0439919593649085</v>
       </c>
       <c r="L3" t="n">
-        <v>50.3644859257266</v>
+        <v>0.0503644859257266</v>
       </c>
       <c r="M3" t="n">
         <v>1.14485662045554</v>
@@ -2152,7 +2152,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>12.5911214814316</v>
+        <v>0.0125911214814316</v>
       </c>
       <c r="P3" t="n">
         <v>0.286214155113885</v>
@@ -2175,28 +2175,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>3.119240495</v>
+        <v>0.003119240495</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>33.5763239504844</v>
+        <v>0.0335763239504844</v>
       </c>
       <c r="H4" t="n">
-        <v>1.5596202475</v>
+        <v>0.0015596202475</v>
       </c>
       <c r="I4" t="n">
-        <v>16.7881619752422</v>
+        <v>0.0167881619752422</v>
       </c>
       <c r="J4" t="n">
-        <v>50.3644859257266</v>
+        <v>0.0503644859257266</v>
       </c>
       <c r="K4" t="n">
-        <v>43.9919593649085</v>
+        <v>0.0439919593649085</v>
       </c>
       <c r="L4" t="n">
-        <v>50.3644859257266</v>
+        <v>0.0503644859257266</v>
       </c>
       <c r="M4" t="n">
         <v>1.14485662045554</v>
@@ -2205,7 +2205,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>12.5911214814316</v>
+        <v>0.0125911214814316</v>
       </c>
       <c r="P4" t="n">
         <v>0.286214155113885</v>
@@ -2295,28 +2295,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.504123662</v>
+        <v>0.000504123662</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>5.42651950484392</v>
+        <v>0.00542651950484392</v>
       </c>
       <c r="H2" t="n">
-        <v>0.252061831</v>
+        <v>0.000252061831</v>
       </c>
       <c r="I2" t="n">
-        <v>2.71325975242196</v>
+        <v>0.00271325975242196</v>
       </c>
       <c r="J2" t="n">
-        <v>2.71325975242196</v>
+        <v>0.00271325975242196</v>
       </c>
       <c r="K2" t="n">
-        <v>5.42651950484392</v>
+        <v>0.00542651950484392</v>
       </c>
       <c r="L2" t="n">
-        <v>2.71325975242196</v>
+        <v>0.00271325975242196</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -2325,7 +2325,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.226104979368497</v>
+        <v>0.000226104979368497</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -2415,28 +2415,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>1.615101047</v>
+        <v>0.001615101047</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>17.3853718729817</v>
+        <v>0.0173853718729817</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8075505235</v>
+        <v>0.0008075505235</v>
       </c>
       <c r="I2" t="n">
-        <v>8.69268593649085</v>
+        <v>0.00869268593649085</v>
       </c>
       <c r="J2" t="n">
-        <v>8.69268593649085</v>
+        <v>0.00869268593649085</v>
       </c>
       <c r="K2" t="n">
-        <v>17.3853718729817</v>
+        <v>0.0173853718729817</v>
       </c>
       <c r="L2" t="n">
-        <v>8.69268593649085</v>
+        <v>0.00869268593649085</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -2445,7 +2445,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.724390494707571</v>
+        <v>0.000724390494707571</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -2535,28 +2535,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E2" t="n">
-        <v>0.767200445</v>
+        <v>0.000767200445</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>24.7750412809473</v>
+        <v>0.0247750412809473</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8638436925</v>
+        <v>0.0008638436925</v>
       </c>
       <c r="I2" t="n">
-        <v>9.29864039289558</v>
+        <v>0.00929864039289558</v>
       </c>
       <c r="J2" t="n">
-        <v>74.3891231431647</v>
+        <v>0.0743891231431647</v>
       </c>
       <c r="K2" t="n">
-        <v>318.763499741658</v>
+        <v>0.318763499741658</v>
       </c>
       <c r="L2" t="n">
-        <v>547.909062432723</v>
+        <v>0.547909062432723</v>
       </c>
       <c r="M2" t="n">
         <v>1.71885759466431</v>
@@ -2565,7 +2565,7 @@
         <v>1.5</v>
       </c>
       <c r="O2" t="n">
-        <v>365.272708288482</v>
+        <v>0.365272708288482</v>
       </c>
       <c r="P2" t="n">
         <v>1.14590506310954</v>
@@ -2588,28 +2588,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.96048694</v>
+        <v>0.00096048694</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>20.6778673842842</v>
+        <v>0.0206778673842842</v>
       </c>
       <c r="H3" t="n">
-        <v>1.1012512565</v>
+        <v>0.0011012512565</v>
       </c>
       <c r="I3" t="n">
-        <v>11.8541577664155</v>
+        <v>0.0118541577664155</v>
       </c>
       <c r="J3" t="n">
-        <v>94.833262131324</v>
+        <v>0.094833262131324</v>
       </c>
       <c r="K3" t="n">
-        <v>318.763499741658</v>
+        <v>0.318763499741658</v>
       </c>
       <c r="L3" t="n">
-        <v>547.909062432723</v>
+        <v>0.547909062432723</v>
       </c>
       <c r="M3" t="n">
         <v>1.71885759466431</v>
@@ -2618,7 +2618,7 @@
         <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>365.272708288482</v>
+        <v>0.365272708288482</v>
       </c>
       <c r="P3" t="n">
         <v>1.14590506310954</v>
@@ -2641,16 +2641,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>1.242015573</v>
+        <v>0.001242015573</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>13.3693818406889</v>
+        <v>0.0133693818406889</v>
       </c>
       <c r="H4" t="n">
-        <v>1.526461603</v>
+        <v>0.001526461603</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -2659,10 +2659,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>318.763499741658</v>
+        <v>0.318763499741658</v>
       </c>
       <c r="L4" t="n">
-        <v>547.909062432723</v>
+        <v>0.547909062432723</v>
       </c>
       <c r="M4" t="n">
         <v>1.71885759466431</v>
@@ -2671,7 +2671,7 @@
         <v>1.5</v>
       </c>
       <c r="O4" t="n">
-        <v>365.272708288482</v>
+        <v>0.365272708288482</v>
       </c>
       <c r="P4" t="n">
         <v>1.14590506310954</v>
@@ -2694,16 +2694,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>1.810907633</v>
+        <v>0.001810907633</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>19.4930853928956</v>
+        <v>0.0194930853928956</v>
       </c>
       <c r="H5" t="n">
-        <v>2.605811078</v>
+        <v>0.002605811078</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>318.763499741658</v>
+        <v>0.318763499741658</v>
       </c>
       <c r="L5" t="n">
-        <v>547.909062432723</v>
+        <v>0.547909062432723</v>
       </c>
       <c r="M5" t="n">
         <v>1.71885759466431</v>
@@ -2724,7 +2724,7 @@
         <v>1.5</v>
       </c>
       <c r="O5" t="n">
-        <v>365.272708288482</v>
+        <v>0.365272708288482</v>
       </c>
       <c r="P5" t="n">
         <v>1.14590506310954</v>
@@ -2747,16 +2747,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>3.400714523</v>
+        <v>0.003400714523</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>36.6061843164693</v>
+        <v>0.0366061843164693</v>
       </c>
       <c r="H6" t="n">
-        <v>3.9258855725</v>
+        <v>0.0039258855725</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -2765,10 +2765,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>318.763499741658</v>
+        <v>0.318763499741658</v>
       </c>
       <c r="L6" t="n">
-        <v>547.909062432723</v>
+        <v>0.547909062432723</v>
       </c>
       <c r="M6" t="n">
         <v>1.71885759466431</v>
@@ -2777,7 +2777,7 @@
         <v>1.5</v>
       </c>
       <c r="O6" t="n">
-        <v>365.272708288482</v>
+        <v>0.365272708288482</v>
       </c>
       <c r="P6" t="n">
         <v>1.14590506310954</v>
@@ -2800,16 +2800,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>4.451056622</v>
+        <v>0.004451056622</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>47.912342540366</v>
+        <v>0.047912342540366</v>
       </c>
       <c r="H7" t="n">
-        <v>5.0709590525</v>
+        <v>0.0050709590525</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -2818,10 +2818,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>318.763499741658</v>
+        <v>0.318763499741658</v>
       </c>
       <c r="L7" t="n">
-        <v>547.909062432723</v>
+        <v>0.547909062432723</v>
       </c>
       <c r="M7" t="n">
         <v>1.71885759466431</v>
@@ -2830,7 +2830,7 @@
         <v>1.5</v>
       </c>
       <c r="O7" t="n">
-        <v>365.272708288482</v>
+        <v>0.365272708288482</v>
       </c>
       <c r="P7" t="n">
         <v>1.14590506310954</v>
@@ -2853,16 +2853,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>5.690861483</v>
+        <v>0.005690861483</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>61.2579276964478</v>
+        <v>0.0612579276964478</v>
       </c>
       <c r="H8" t="n">
-        <v>7.24292978</v>
+        <v>0.00724292978</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2871,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>318.763499741658</v>
+        <v>0.318763499741658</v>
       </c>
       <c r="L8" t="n">
-        <v>547.909062432723</v>
+        <v>0.547909062432723</v>
       </c>
       <c r="M8" t="n">
         <v>1.71885759466431</v>
@@ -2883,7 +2883,7 @@
         <v>1.5</v>
       </c>
       <c r="O8" t="n">
-        <v>365.272708288482</v>
+        <v>0.365272708288482</v>
       </c>
       <c r="P8" t="n">
         <v>1.14590506310954</v>
@@ -2906,28 +2906,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E9" t="n">
-        <v>8.794998077</v>
+        <v>0.008794998077</v>
       </c>
       <c r="F9" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G9" t="n">
-        <v>94.6716692895587</v>
+        <v>0.0946716692895587</v>
       </c>
       <c r="H9" t="n">
-        <v>4.3974990385</v>
+        <v>0.0043974990385</v>
       </c>
       <c r="I9" t="n">
-        <v>47.3358346447793</v>
+        <v>0.0473358346447793</v>
       </c>
       <c r="J9" t="n">
-        <v>378.686677158235</v>
+        <v>0.378686677158235</v>
       </c>
       <c r="K9" t="n">
-        <v>318.763499741658</v>
+        <v>0.318763499741658</v>
       </c>
       <c r="L9" t="n">
-        <v>547.909062432723</v>
+        <v>0.547909062432723</v>
       </c>
       <c r="M9" t="n">
         <v>1.71885759466431</v>
@@ -2936,7 +2936,7 @@
         <v>1.5</v>
       </c>
       <c r="O9" t="n">
-        <v>365.272708288482</v>
+        <v>0.365272708288482</v>
       </c>
       <c r="P9" t="n">
         <v>1.14590506310954</v>
@@ -3026,16 +3026,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.72087883</v>
+        <v>0.00072087883</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.75972906350915</v>
+        <v>0.00775972906350915</v>
       </c>
       <c r="H2" t="n">
-        <v>2.079719349</v>
+        <v>0.002079719349</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3044,10 +3044,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.773290613563</v>
+        <v>0.044773290613563</v>
       </c>
       <c r="L2" t="n">
-        <v>37.0135615500538</v>
+        <v>0.0370135615500538</v>
       </c>
       <c r="M2" t="n">
         <v>0.82668843506538</v>
@@ -3056,7 +3056,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>6.16892692500897</v>
+        <v>0.00616892692500897</v>
       </c>
       <c r="P2" t="n">
         <v>0.13778140584423</v>
@@ -3079,28 +3079,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>3.438559868</v>
+        <v>0.003438559868</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>37.0135615500538</v>
+        <v>0.0370135615500538</v>
       </c>
       <c r="H3" t="n">
-        <v>1.719279934</v>
+        <v>0.001719279934</v>
       </c>
       <c r="I3" t="n">
-        <v>18.5067807750269</v>
+        <v>0.0185067807750269</v>
       </c>
       <c r="J3" t="n">
-        <v>37.0135615500538</v>
+        <v>0.0370135615500538</v>
       </c>
       <c r="K3" t="n">
-        <v>44.773290613563</v>
+        <v>0.044773290613563</v>
       </c>
       <c r="L3" t="n">
-        <v>37.0135615500538</v>
+        <v>0.0370135615500538</v>
       </c>
       <c r="M3" t="n">
         <v>0.82668843506538</v>
@@ -3109,7 +3109,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>6.16892692500897</v>
+        <v>0.00616892692500897</v>
       </c>
       <c r="P3" t="n">
         <v>0.13778140584423</v>
@@ -3199,28 +3199,28 @@
         <v>75.3498385360603</v>
       </c>
       <c r="E2" t="n">
-        <v>0.021</v>
+        <v>0.000021</v>
       </c>
       <c r="F2" t="n">
         <v>-307.857911733046</v>
       </c>
       <c r="G2" t="n">
-        <v>1.58234660925727</v>
+        <v>0.00158234660925727</v>
       </c>
       <c r="H2" t="n">
-        <v>0.356054112</v>
+        <v>0.000356054112</v>
       </c>
       <c r="I2" t="n">
-        <v>-109.614075384284</v>
+        <v>-0.109614075384284</v>
       </c>
       <c r="J2" t="n">
-        <v>-876.912603074273</v>
+        <v>-0.876912603074273</v>
       </c>
       <c r="K2" t="n">
-        <v>1311.7835758663</v>
+        <v>1.3117835758663</v>
       </c>
       <c r="L2" t="n">
-        <v>4223.98539944555</v>
+        <v>4.22398539944555</v>
       </c>
       <c r="M2" t="n">
         <v>3.22003223485705</v>
@@ -3229,7 +3229,7 @@
         <v>1.5</v>
       </c>
       <c r="O2" t="n">
-        <v>2815.99026629703</v>
+        <v>2.81599026629703</v>
       </c>
       <c r="P2" t="n">
         <v>2.14668815657137</v>
@@ -3252,28 +3252,28 @@
         <v>383.207750269107</v>
       </c>
       <c r="E3" t="n">
-        <v>0.691108224</v>
+        <v>0.000691108224</v>
       </c>
       <c r="F3" t="n">
         <v>55.9741657696448</v>
       </c>
       <c r="G3" t="n">
-        <v>264.838027711518</v>
+        <v>0.264838027711518</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22524380395</v>
+        <v>0.00122524380395</v>
       </c>
       <c r="I3" t="n">
-        <v>68.5819997905275</v>
+        <v>0.0685819997905275</v>
       </c>
       <c r="J3" t="n">
-        <v>548.65599832422</v>
+        <v>0.54865599832422</v>
       </c>
       <c r="K3" t="n">
-        <v>1311.7835758663</v>
+        <v>1.3117835758663</v>
       </c>
       <c r="L3" t="n">
-        <v>4223.98539944555</v>
+        <v>4.22398539944555</v>
       </c>
       <c r="M3" t="n">
         <v>3.22003223485705</v>
@@ -3282,7 +3282,7 @@
         <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>2815.99026629703</v>
+        <v>2.81599026629703</v>
       </c>
       <c r="P3" t="n">
         <v>2.14668815657137</v>
@@ -3305,28 +3305,28 @@
         <v>327.233584499462</v>
       </c>
       <c r="E4" t="n">
-        <v>1.7593793839</v>
+        <v>0.0017593793839</v>
       </c>
       <c r="F4" t="n">
         <v>241.119483315393</v>
       </c>
       <c r="G4" t="n">
-        <v>575.728022288052</v>
+        <v>0.575728022288052</v>
       </c>
       <c r="H4" t="n">
-        <v>1.26290479758838</v>
+        <v>0.00126290479758838</v>
       </c>
       <c r="I4" t="n">
-        <v>304.510952271042</v>
+        <v>0.304510952271042</v>
       </c>
       <c r="J4" t="n">
-        <v>2436.08761816834</v>
+        <v>2.43608761816834</v>
       </c>
       <c r="K4" t="n">
-        <v>1311.7835758663</v>
+        <v>1.3117835758663</v>
       </c>
       <c r="L4" t="n">
-        <v>4223.98539944555</v>
+        <v>4.22398539944555</v>
       </c>
       <c r="M4" t="n">
         <v>3.22003223485705</v>
@@ -3335,7 +3335,7 @@
         <v>1.5</v>
       </c>
       <c r="O4" t="n">
-        <v>2815.99026629703</v>
+        <v>2.81599026629703</v>
       </c>
       <c r="P4" t="n">
         <v>2.14668815657137</v>
@@ -3358,28 +3358,28 @@
         <v>86.1141011840689</v>
       </c>
       <c r="E5" t="n">
-        <v>0.766430211276768</v>
+        <v>0.000766430211276768</v>
       </c>
       <c r="F5" t="n">
         <v>-5.38213132400431</v>
       </c>
       <c r="G5" t="n">
-        <v>66.0004487644149</v>
+        <v>0.0660004487644149</v>
       </c>
       <c r="H5" t="n">
-        <v>1.35716222288838</v>
+        <v>0.00135716222288838</v>
       </c>
       <c r="I5" t="n">
-        <v>-7.30442531156288</v>
+        <v>-0.00730442531156288</v>
       </c>
       <c r="J5" t="n">
-        <v>-58.4354024925031</v>
+        <v>-0.0584354024925031</v>
       </c>
       <c r="K5" t="n">
-        <v>1311.7835758663</v>
+        <v>1.3117835758663</v>
       </c>
       <c r="L5" t="n">
-        <v>4223.98539944555</v>
+        <v>4.22398539944555</v>
       </c>
       <c r="M5" t="n">
         <v>3.22003223485705</v>
@@ -3388,7 +3388,7 @@
         <v>1.5</v>
       </c>
       <c r="O5" t="n">
-        <v>2815.99026629703</v>
+        <v>2.81599026629703</v>
       </c>
       <c r="P5" t="n">
         <v>2.14668815657137</v>
@@ -3411,28 +3411,28 @@
         <v>91.4962325080732</v>
       </c>
       <c r="E6" t="n">
-        <v>1.9478942345</v>
+        <v>0.0019478942345</v>
       </c>
       <c r="F6" t="n">
         <v>23.3225690706853</v>
       </c>
       <c r="G6" t="n">
-        <v>178.224983780947</v>
+        <v>0.178224983780947</v>
       </c>
       <c r="H6" t="n">
-        <v>2.15988809058333</v>
+        <v>0.00215988809058333</v>
       </c>
       <c r="I6" t="n">
-        <v>50.3741391775805</v>
+        <v>0.0503741391775804</v>
       </c>
       <c r="J6" t="n">
-        <v>402.993113420644</v>
+        <v>0.402993113420644</v>
       </c>
       <c r="K6" t="n">
-        <v>1311.7835758663</v>
+        <v>1.3117835758663</v>
       </c>
       <c r="L6" t="n">
-        <v>4223.98539944555</v>
+        <v>4.22398539944555</v>
       </c>
       <c r="M6" t="n">
         <v>3.22003223485705</v>
@@ -3441,7 +3441,7 @@
         <v>1.5</v>
       </c>
       <c r="O6" t="n">
-        <v>2815.99026629703</v>
+        <v>2.81599026629703</v>
       </c>
       <c r="P6" t="n">
         <v>2.14668815657137</v>
@@ -3464,28 +3464,28 @@
         <v>68.1736634373879</v>
       </c>
       <c r="E7" t="n">
-        <v>2.37188194666667</v>
+        <v>0.00237188194666667</v>
       </c>
       <c r="F7" t="n">
         <v>35.880875493362</v>
       </c>
       <c r="G7" t="n">
-        <v>161.69988154527</v>
+        <v>0.16169988154527</v>
       </c>
       <c r="H7" t="n">
-        <v>2.03689604983333</v>
+        <v>0.00203689604983333</v>
       </c>
       <c r="I7" t="n">
-        <v>73.0856135569908</v>
+        <v>0.0730856135569908</v>
       </c>
       <c r="J7" t="n">
-        <v>584.684908455926</v>
+        <v>0.584684908455926</v>
       </c>
       <c r="K7" t="n">
-        <v>1311.7835758663</v>
+        <v>1.3117835758663</v>
       </c>
       <c r="L7" t="n">
-        <v>4223.98539944555</v>
+        <v>4.22398539944555</v>
       </c>
       <c r="M7" t="n">
         <v>3.22003223485705</v>
@@ -3494,7 +3494,7 @@
         <v>1.5</v>
       </c>
       <c r="O7" t="n">
-        <v>2815.99026629703</v>
+        <v>2.81599026629703</v>
       </c>
       <c r="P7" t="n">
         <v>2.14668815657137</v>
@@ -3517,28 +3517,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E8" t="n">
-        <v>1.701910153</v>
+        <v>0.001701910153</v>
       </c>
       <c r="F8" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G8" t="n">
-        <v>54.9594236706136</v>
+        <v>0.0549594236706136</v>
       </c>
       <c r="H8" t="n">
-        <v>1.257413084</v>
+        <v>0.001257413084</v>
       </c>
       <c r="I8" t="n">
-        <v>27.070249386437</v>
+        <v>0.027070249386437</v>
       </c>
       <c r="J8" t="n">
-        <v>216.561995091496</v>
+        <v>0.216561995091496</v>
       </c>
       <c r="K8" t="n">
-        <v>1311.7835758663</v>
+        <v>1.3117835758663</v>
       </c>
       <c r="L8" t="n">
-        <v>4223.98539944555</v>
+        <v>4.22398539944555</v>
       </c>
       <c r="M8" t="n">
         <v>3.22003223485705</v>
@@ -3547,7 +3547,7 @@
         <v>1.5</v>
       </c>
       <c r="O8" t="n">
-        <v>2815.99026629703</v>
+        <v>2.81599026629703</v>
       </c>
       <c r="P8" t="n">
         <v>2.14668815657137</v>
@@ -3570,28 +3570,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E9" t="n">
-        <v>0.812916015</v>
+        <v>0.000812916015</v>
       </c>
       <c r="F9" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G9" t="n">
-        <v>8.75044149623251</v>
+        <v>0.00875044149623251</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4064580075</v>
+        <v>0.0004064580075</v>
       </c>
       <c r="I9" t="n">
-        <v>4.37522074811625</v>
+        <v>0.00437522074811625</v>
       </c>
       <c r="J9" t="n">
-        <v>35.00176598493</v>
+        <v>0.03500176598493</v>
       </c>
       <c r="K9" t="n">
-        <v>1311.7835758663</v>
+        <v>1.3117835758663</v>
       </c>
       <c r="L9" t="n">
-        <v>4223.98539944555</v>
+        <v>4.22398539944555</v>
       </c>
       <c r="M9" t="n">
         <v>3.22003223485705</v>
@@ -3600,7 +3600,7 @@
         <v>1.5</v>
       </c>
       <c r="O9" t="n">
-        <v>2815.99026629703</v>
+        <v>2.81599026629703</v>
       </c>
       <c r="P9" t="n">
         <v>2.14668815657137</v>
@@ -3690,28 +3690,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.026218656</v>
+        <v>0.000026218656</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.282224499461787</v>
+        <v>0.000282224499461787</v>
       </c>
       <c r="H2" t="n">
-        <v>0.013109328</v>
+        <v>0.000013109328</v>
       </c>
       <c r="I2" t="n">
-        <v>0.141112249730893</v>
+        <v>0.000141112249730893</v>
       </c>
       <c r="J2" t="n">
-        <v>0.141112249730893</v>
+        <v>0.000141112249730893</v>
       </c>
       <c r="K2" t="n">
-        <v>0.282224499461787</v>
+        <v>0.000282224499461787</v>
       </c>
       <c r="L2" t="n">
-        <v>0.141112249730893</v>
+        <v>0.000141112249730893</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -3720,7 +3720,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0117593541442411</v>
+        <v>0.0000117593541442411</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -3810,28 +3810,28 @@
         <v>16.1463939720129</v>
       </c>
       <c r="E2" t="n">
-        <v>0.073616738</v>
+        <v>0.000073616738</v>
       </c>
       <c r="F2" t="n">
         <v>-21.5285252960172</v>
       </c>
       <c r="G2" t="n">
-        <v>1.18864485468245</v>
+        <v>0.00118864485468245</v>
       </c>
       <c r="H2" t="n">
-        <v>0.29254028775</v>
+        <v>0.00029254028775</v>
       </c>
       <c r="I2" t="n">
-        <v>-6.29796098493003</v>
+        <v>-0.00629796098493003</v>
       </c>
       <c r="J2" t="n">
-        <v>-12.5959219698601</v>
+        <v>-0.0125959219698601</v>
       </c>
       <c r="K2" t="n">
-        <v>20.4580036410118</v>
+        <v>0.0204580036410118</v>
       </c>
       <c r="L2" t="n">
-        <v>19.2693587863294</v>
+        <v>0.0192693587863294</v>
       </c>
       <c r="M2" t="n">
         <v>0.941898296845563</v>
@@ -3840,7 +3840,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>3.21155979772157</v>
+        <v>0.00321155979772156</v>
       </c>
       <c r="P2" t="n">
         <v>0.156983049474261</v>
@@ -3863,28 +3863,28 @@
         <v>37.6749192680301</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5114638375</v>
+        <v>0.0005114638375</v>
       </c>
       <c r="F3" t="n">
         <v>37.6749192680301</v>
       </c>
       <c r="G3" t="n">
-        <v>19.2693587863294</v>
+        <v>0.0192693587863294</v>
       </c>
       <c r="H3" t="n">
-        <v>0.25573191875</v>
+        <v>0.00025573191875</v>
       </c>
       <c r="I3" t="n">
-        <v>9.6346793931647</v>
+        <v>0.00963467939316469</v>
       </c>
       <c r="J3" t="n">
-        <v>19.2693587863294</v>
+        <v>0.0192693587863294</v>
       </c>
       <c r="K3" t="n">
-        <v>20.4580036410118</v>
+        <v>0.0204580036410118</v>
       </c>
       <c r="L3" t="n">
-        <v>19.2693587863294</v>
+        <v>0.0192693587863294</v>
       </c>
       <c r="M3" t="n">
         <v>0.941898296845563</v>
@@ -3893,7 +3893,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>3.21155979772157</v>
+        <v>0.00321155979772156</v>
       </c>
       <c r="P3" t="n">
         <v>0.156983049474261</v>
@@ -3983,28 +3983,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.175405746</v>
+        <v>0.000175405746</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>1.88811351991389</v>
+        <v>0.00188811351991389</v>
       </c>
       <c r="H2" t="n">
-        <v>0.087702873</v>
+        <v>0.000087702873</v>
       </c>
       <c r="I2" t="n">
-        <v>0.944056759956943</v>
+        <v>0.000944056759956943</v>
       </c>
       <c r="J2" t="n">
-        <v>0.944056759956943</v>
+        <v>0.000944056759956943</v>
       </c>
       <c r="K2" t="n">
-        <v>1.88811351991389</v>
+        <v>0.00188811351991389</v>
       </c>
       <c r="L2" t="n">
-        <v>0.944056759956943</v>
+        <v>0.000944056759956943</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -4013,7 +4013,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0786713966630786</v>
+        <v>0.0000786713966630786</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -4103,28 +4103,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.11219969</v>
+        <v>0.00011219969</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>1.20774693218515</v>
+        <v>0.00120774693218515</v>
       </c>
       <c r="H2" t="n">
-        <v>0.056099845</v>
+        <v>0.000056099845</v>
       </c>
       <c r="I2" t="n">
-        <v>0.603873466092573</v>
+        <v>0.000603873466092573</v>
       </c>
       <c r="J2" t="n">
-        <v>0.603873466092573</v>
+        <v>0.000603873466092573</v>
       </c>
       <c r="K2" t="n">
-        <v>1.20774693218515</v>
+        <v>0.00120774693218515</v>
       </c>
       <c r="L2" t="n">
-        <v>0.603873466092573</v>
+        <v>0.000603873466092573</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -4133,7 +4133,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0503227888410477</v>
+        <v>0.0000503227888410477</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -4223,28 +4223,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>1.669578504</v>
+        <v>0.001669578504</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>17.9717815285253</v>
+        <v>0.0179717815285253</v>
       </c>
       <c r="H2" t="n">
-        <v>0.834789252</v>
+        <v>0.000834789252</v>
       </c>
       <c r="I2" t="n">
-        <v>8.98589076426265</v>
+        <v>0.00898589076426265</v>
       </c>
       <c r="J2" t="n">
-        <v>8.98589076426265</v>
+        <v>0.00898589076426265</v>
       </c>
       <c r="K2" t="n">
-        <v>17.9717815285253</v>
+        <v>0.0179717815285253</v>
       </c>
       <c r="L2" t="n">
-        <v>8.98589076426265</v>
+        <v>0.00898589076426265</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -4253,7 +4253,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.748824230355221</v>
+        <v>0.000748824230355221</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -4343,28 +4343,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E2" t="n">
-        <v>0.302318535</v>
+        <v>0.000302318535</v>
       </c>
       <c r="F2" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G2" t="n">
-        <v>9.76270834230355</v>
+        <v>0.00976270834230355</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3797116875</v>
+        <v>0.0003797116875</v>
       </c>
       <c r="I2" t="n">
-        <v>8.17463266953714</v>
+        <v>0.00817463266953714</v>
       </c>
       <c r="J2" t="n">
-        <v>24.5238980086114</v>
+        <v>0.0245238980086114</v>
       </c>
       <c r="K2" t="n">
-        <v>23.1237685360603</v>
+        <v>0.0231237685360603</v>
       </c>
       <c r="L2" t="n">
-        <v>37.1848934660926</v>
+        <v>0.0371848934660926</v>
       </c>
       <c r="M2" t="n">
         <v>1.6080810274547</v>
@@ -4373,7 +4373,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>9.29622336652315</v>
+        <v>0.00929622336652314</v>
       </c>
       <c r="P2" t="n">
         <v>0.402020256863676</v>
@@ -4396,16 +4396,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.45710484</v>
+        <v>0.00045710484</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.92039655543595</v>
+        <v>0.00492039655543595</v>
       </c>
       <c r="H3" t="n">
-        <v>0.620621246</v>
+        <v>0.000620621246</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4414,10 +4414,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>23.1237685360603</v>
+        <v>0.0231237685360603</v>
       </c>
       <c r="L3" t="n">
-        <v>37.1848934660926</v>
+        <v>0.0371848934660926</v>
       </c>
       <c r="M3" t="n">
         <v>1.6080810274547</v>
@@ -4426,7 +4426,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>9.29622336652315</v>
+        <v>0.00929622336652314</v>
       </c>
       <c r="P3" t="n">
         <v>0.402020256863676</v>
@@ -4449,28 +4449,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.784137652</v>
+        <v>0.000784137652</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>8.44066363832077</v>
+        <v>0.00844066363832078</v>
       </c>
       <c r="H4" t="n">
-        <v>0.392068826</v>
+        <v>0.000392068826</v>
       </c>
       <c r="I4" t="n">
-        <v>4.22033181916039</v>
+        <v>0.00422033181916039</v>
       </c>
       <c r="J4" t="n">
-        <v>12.6609954574812</v>
+        <v>0.0126609954574812</v>
       </c>
       <c r="K4" t="n">
-        <v>23.1237685360603</v>
+        <v>0.0231237685360603</v>
       </c>
       <c r="L4" t="n">
-        <v>37.1848934660926</v>
+        <v>0.0371848934660926</v>
       </c>
       <c r="M4" t="n">
         <v>1.6080810274547</v>
@@ -4479,7 +4479,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>9.29622336652315</v>
+        <v>0.00929622336652314</v>
       </c>
       <c r="P4" t="n">
         <v>0.402020256863676</v>
@@ -4569,28 +4569,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.034642378</v>
+        <v>0.000034642378</v>
       </c>
       <c r="F2" t="n">
         <v>-2.69106566200215</v>
       </c>
       <c r="G2" t="n">
-        <v>0.745799311087191</v>
+        <v>0.000745799311087191</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06015229203125</v>
+        <v>0.00006015229203125</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.161873767576023</v>
+        <v>-0.000161873767576023</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.485621302728068</v>
+        <v>-0.000485621302728068</v>
       </c>
       <c r="K2" t="n">
-        <v>18.4788424934405</v>
+        <v>0.0184788424934405</v>
       </c>
       <c r="L2" t="n">
-        <v>23.487509386437</v>
+        <v>0.023487509386437</v>
       </c>
       <c r="M2" t="n">
         <v>1.27104873558906</v>
@@ -4599,7 +4599,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>5.87187734660926</v>
+        <v>0.00587187734660926</v>
       </c>
       <c r="P2" t="n">
         <v>0.317762183897266</v>
@@ -4622,28 +4622,28 @@
         <v>24.2195909580194</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0856622060625</v>
+        <v>0.0000856622060625</v>
       </c>
       <c r="F3" t="n">
         <v>-18.8374596340151</v>
       </c>
       <c r="G3" t="n">
-        <v>2.07470359139532</v>
+        <v>0.00207470359139532</v>
       </c>
       <c r="H3" t="n">
-        <v>0.22466357153125</v>
+        <v>0.00022466357153125</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.23209095995358</v>
+        <v>-0.00423209095995358</v>
       </c>
       <c r="J3" t="n">
-        <v>-12.6962728798607</v>
+        <v>-0.0126962728798607</v>
       </c>
       <c r="K3" t="n">
-        <v>18.4788424934405</v>
+        <v>0.0184788424934405</v>
       </c>
       <c r="L3" t="n">
-        <v>23.487509386437</v>
+        <v>0.023487509386437</v>
       </c>
       <c r="M3" t="n">
         <v>1.27104873558906</v>
@@ -4652,7 +4652,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>5.87187734660926</v>
+        <v>0.00587187734660926</v>
       </c>
       <c r="P3" t="n">
         <v>0.317762183897266</v>
@@ -4675,28 +4675,28 @@
         <v>43.0570505920345</v>
       </c>
       <c r="E4" t="n">
-        <v>0.363664937</v>
+        <v>0.000363664937</v>
       </c>
       <c r="F4" t="n">
         <v>43.0570505920345</v>
       </c>
       <c r="G4" t="n">
-        <v>15.658339590958</v>
+        <v>0.015658339590958</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1818324685</v>
+        <v>0.0001818324685</v>
       </c>
       <c r="I4" t="n">
-        <v>7.82916979547901</v>
+        <v>0.00782916979547901</v>
       </c>
       <c r="J4" t="n">
-        <v>23.487509386437</v>
+        <v>0.023487509386437</v>
       </c>
       <c r="K4" t="n">
-        <v>18.4788424934405</v>
+        <v>0.0184788424934405</v>
       </c>
       <c r="L4" t="n">
-        <v>23.487509386437</v>
+        <v>0.023487509386437</v>
       </c>
       <c r="M4" t="n">
         <v>1.27104873558906</v>
@@ -4705,7 +4705,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>5.87187734660926</v>
+        <v>0.00587187734660926</v>
       </c>
       <c r="P4" t="n">
         <v>0.317762183897266</v>
@@ -4795,28 +4795,28 @@
         <v>86.1141011840689</v>
       </c>
       <c r="E2" t="n">
-        <v>0.016</v>
+        <v>0.000016</v>
       </c>
       <c r="F2" t="n">
         <v>-323.466092572659</v>
       </c>
       <c r="G2" t="n">
-        <v>1.3778256189451</v>
+        <v>0.0013778256189451</v>
       </c>
       <c r="H2" t="n">
-        <v>0.184003019841667</v>
+        <v>0.000184003019841667</v>
       </c>
       <c r="I2" t="n">
-        <v>-59.5187378497533</v>
+        <v>-0.0595187378497533</v>
       </c>
       <c r="J2" t="n">
-        <v>-595.187378497533</v>
+        <v>-0.595187378497533</v>
       </c>
       <c r="K2" t="n">
-        <v>1275.64247990975</v>
+        <v>1.27564247990975</v>
       </c>
       <c r="L2" t="n">
-        <v>4886.1175480472</v>
+        <v>4.8861175480472</v>
       </c>
       <c r="M2" t="n">
         <v>3.83031893731925</v>
@@ -4825,7 +4825,7 @@
         <v>1.2</v>
       </c>
       <c r="O2" t="n">
-        <v>4071.76462337267</v>
+        <v>4.07176462337267</v>
       </c>
       <c r="P2" t="n">
         <v>3.19193244776604</v>
@@ -4848,28 +4848,28 @@
         <v>409.580193756728</v>
       </c>
       <c r="E3" t="n">
-        <v>0.352006039683333</v>
+        <v>0.000352006039683333</v>
       </c>
       <c r="F3" t="n">
         <v>-155.184786508791</v>
       </c>
       <c r="G3" t="n">
-        <v>144.174701937038</v>
+        <v>0.144174701937038</v>
       </c>
       <c r="H3" t="n">
-        <v>0.714204008447199</v>
+        <v>0.000714204008447199</v>
       </c>
       <c r="I3" t="n">
-        <v>-110.833596574601</v>
+        <v>-0.110833596574601</v>
       </c>
       <c r="J3" t="n">
-        <v>-1108.33596574601</v>
+        <v>-1.10833596574601</v>
       </c>
       <c r="K3" t="n">
-        <v>1275.64247990975</v>
+        <v>1.27564247990975</v>
       </c>
       <c r="L3" t="n">
-        <v>4886.1175480472</v>
+        <v>4.8861175480472</v>
       </c>
       <c r="M3" t="n">
         <v>3.83031893731925</v>
@@ -4878,7 +4878,7 @@
         <v>1.2</v>
       </c>
       <c r="O3" t="n">
-        <v>4071.76462337267</v>
+        <v>4.07176462337267</v>
       </c>
       <c r="P3" t="n">
         <v>3.19193244776604</v>
@@ -4901,28 +4901,28 @@
         <v>564.764980265518</v>
       </c>
       <c r="E4" t="n">
-        <v>1.07640197721107</v>
+        <v>0.00107640197721107</v>
       </c>
       <c r="F4" t="n">
         <v>278.076785073556</v>
       </c>
       <c r="G4" t="n">
-        <v>607.914141417372</v>
+        <v>0.607914141417372</v>
       </c>
       <c r="H4" t="n">
-        <v>0.94255794973751</v>
+        <v>0.00094255794973751</v>
       </c>
       <c r="I4" t="n">
-        <v>262.103484408529</v>
+        <v>0.262103484408529</v>
       </c>
       <c r="J4" t="n">
-        <v>2621.03484408529</v>
+        <v>2.62103484408529</v>
       </c>
       <c r="K4" t="n">
-        <v>1275.64247990975</v>
+        <v>1.27564247990975</v>
       </c>
       <c r="L4" t="n">
-        <v>4886.1175480472</v>
+        <v>4.8861175480472</v>
       </c>
       <c r="M4" t="n">
         <v>3.83031893731925</v>
@@ -4931,7 +4931,7 @@
         <v>1.2</v>
       </c>
       <c r="O4" t="n">
-        <v>4071.76462337267</v>
+        <v>4.07176462337267</v>
       </c>
       <c r="P4" t="n">
         <v>3.19193244776604</v>
@@ -4954,28 +4954,28 @@
         <v>286.688195191963</v>
       </c>
       <c r="E5" t="n">
-        <v>0.808713922263956</v>
+        <v>0.000808713922263956</v>
       </c>
       <c r="F5" t="n">
         <v>111.589522784356</v>
       </c>
       <c r="G5" t="n">
-        <v>231.848734800467</v>
+        <v>0.231848734800467</v>
       </c>
       <c r="H5" t="n">
-        <v>0.836517087710116</v>
+        <v>0.000836517087710116</v>
       </c>
       <c r="I5" t="n">
-        <v>93.3465426185311</v>
+        <v>0.0933465426185311</v>
       </c>
       <c r="J5" t="n">
-        <v>933.465426185311</v>
+        <v>0.933465426185311</v>
       </c>
       <c r="K5" t="n">
-        <v>1275.64247990975</v>
+        <v>1.27564247990975</v>
       </c>
       <c r="L5" t="n">
-        <v>4886.1175480472</v>
+        <v>4.8861175480472</v>
       </c>
       <c r="M5" t="n">
         <v>3.83031893731925</v>
@@ -4984,7 +4984,7 @@
         <v>1.2</v>
       </c>
       <c r="O5" t="n">
-        <v>4071.76462337267</v>
+        <v>4.07176462337267</v>
       </c>
       <c r="P5" t="n">
         <v>3.19193244776604</v>
@@ -5007,28 +5007,28 @@
         <v>175.098672407607</v>
       </c>
       <c r="E6" t="n">
-        <v>0.864320253156277</v>
+        <v>0.000864320253156277</v>
       </c>
       <c r="F6" t="n">
         <v>82.5260136347327</v>
       </c>
       <c r="G6" t="n">
-        <v>151.341328862671</v>
+        <v>0.151341328862671</v>
       </c>
       <c r="H6" t="n">
-        <v>0.917428738644805</v>
+        <v>0.000917428738644805</v>
       </c>
       <c r="I6" t="n">
-        <v>75.7117365942968</v>
+        <v>0.0757117365942968</v>
       </c>
       <c r="J6" t="n">
-        <v>757.117365942968</v>
+        <v>0.757117365942968</v>
       </c>
       <c r="K6" t="n">
-        <v>1275.64247990975</v>
+        <v>1.27564247990975</v>
       </c>
       <c r="L6" t="n">
-        <v>4886.1175480472</v>
+        <v>4.8861175480472</v>
       </c>
       <c r="M6" t="n">
         <v>3.83031893731925</v>
@@ -5037,7 +5037,7 @@
         <v>1.2</v>
       </c>
       <c r="O6" t="n">
-        <v>4071.76462337267</v>
+        <v>4.07176462337267</v>
       </c>
       <c r="P6" t="n">
         <v>3.19193244776604</v>
@@ -5060,28 +5060,28 @@
         <v>92.5726587728741</v>
       </c>
       <c r="E7" t="n">
-        <v>0.970537224133333</v>
+        <v>0.000970537224133333</v>
       </c>
       <c r="F7" t="n">
         <v>40.5453893074991</v>
       </c>
       <c r="G7" t="n">
-        <v>89.8452112760675</v>
+        <v>0.0898452112760675</v>
       </c>
       <c r="H7" t="n">
-        <v>0.86865540815</v>
+        <v>0.00086865540815</v>
       </c>
       <c r="I7" t="n">
-        <v>35.2199716975063</v>
+        <v>0.0352199716975063</v>
       </c>
       <c r="J7" t="n">
-        <v>352.199716975063</v>
+        <v>0.352199716975063</v>
       </c>
       <c r="K7" t="n">
-        <v>1275.64247990975</v>
+        <v>1.27564247990975</v>
       </c>
       <c r="L7" t="n">
-        <v>4886.1175480472</v>
+        <v>4.8861175480472</v>
       </c>
       <c r="M7" t="n">
         <v>3.83031893731925</v>
@@ -5090,7 +5090,7 @@
         <v>1.2</v>
       </c>
       <c r="O7" t="n">
-        <v>4071.76462337267</v>
+        <v>4.07176462337267</v>
       </c>
       <c r="P7" t="n">
         <v>3.19193244776604</v>
@@ -5113,28 +5113,28 @@
         <v>52.027269465375</v>
       </c>
       <c r="E8" t="n">
-        <v>0.766773592166667</v>
+        <v>0.000766773592166667</v>
       </c>
       <c r="F8" t="n">
         <v>41.2630068173663</v>
       </c>
       <c r="G8" t="n">
-        <v>39.8931362985887</v>
+        <v>0.0398931362985887</v>
       </c>
       <c r="H8" t="n">
-        <v>0.491920551583333</v>
+        <v>0.000491920551583333</v>
       </c>
       <c r="I8" t="n">
-        <v>20.2981210735857</v>
+        <v>0.0202981210735857</v>
       </c>
       <c r="J8" t="n">
-        <v>202.981210735857</v>
+        <v>0.202981210735857</v>
       </c>
       <c r="K8" t="n">
-        <v>1275.64247990975</v>
+        <v>1.27564247990975</v>
       </c>
       <c r="L8" t="n">
-        <v>4886.1175480472</v>
+        <v>4.8861175480472</v>
       </c>
       <c r="M8" t="n">
         <v>3.83031893731925</v>
@@ -5143,7 +5143,7 @@
         <v>1.2</v>
       </c>
       <c r="O8" t="n">
-        <v>4071.76462337267</v>
+        <v>4.07176462337267</v>
       </c>
       <c r="P8" t="n">
         <v>3.19193244776604</v>
@@ -5166,16 +5166,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E9" t="n">
-        <v>0.217067511</v>
+        <v>0.000217067511</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.3365717007535</v>
+        <v>0.0023365717007535</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2500683535</v>
+        <v>0.0002500683535</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -5184,10 +5184,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1275.64247990975</v>
+        <v>1.27564247990975</v>
       </c>
       <c r="L9" t="n">
-        <v>4886.1175480472</v>
+        <v>4.8861175480472</v>
       </c>
       <c r="M9" t="n">
         <v>3.83031893731925</v>
@@ -5196,7 +5196,7 @@
         <v>1.2</v>
       </c>
       <c r="O9" t="n">
-        <v>4071.76462337267</v>
+        <v>4.07176462337267</v>
       </c>
       <c r="P9" t="n">
         <v>3.19193244776604</v>
@@ -5219,16 +5219,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E10" t="n">
-        <v>0.283069196</v>
+        <v>0.000283069196</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3.04703117330463</v>
+        <v>0.00304703117330463</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3210079605</v>
+        <v>0.0003210079605</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -5237,10 +5237,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1275.64247990975</v>
+        <v>1.27564247990975</v>
       </c>
       <c r="L10" t="n">
-        <v>4886.1175480472</v>
+        <v>4.8861175480472</v>
       </c>
       <c r="M10" t="n">
         <v>3.83031893731925</v>
@@ -5249,7 +5249,7 @@
         <v>1.2</v>
       </c>
       <c r="O10" t="n">
-        <v>4071.76462337267</v>
+        <v>4.07176462337267</v>
       </c>
       <c r="P10" t="n">
         <v>3.19193244776604</v>
@@ -5272,28 +5272,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E11" t="n">
-        <v>0.358946725</v>
+        <v>0.000358946725</v>
       </c>
       <c r="F11" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G11" t="n">
-        <v>3.86379682454252</v>
+        <v>0.00386379682454252</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1794733625</v>
+        <v>0.0001794733625</v>
       </c>
       <c r="I11" t="n">
-        <v>1.93189841227126</v>
+        <v>0.00193189841227126</v>
       </c>
       <c r="J11" t="n">
-        <v>19.3189841227126</v>
+        <v>0.0193189841227126</v>
       </c>
       <c r="K11" t="n">
-        <v>1275.64247990975</v>
+        <v>1.27564247990975</v>
       </c>
       <c r="L11" t="n">
-        <v>4886.1175480472</v>
+        <v>4.8861175480472</v>
       </c>
       <c r="M11" t="n">
         <v>3.83031893731925</v>
@@ -5302,7 +5302,7 @@
         <v>1.2</v>
       </c>
       <c r="O11" t="n">
-        <v>4071.76462337267</v>
+        <v>4.07176462337267</v>
       </c>
       <c r="P11" t="n">
         <v>3.19193244776604</v>
@@ -5392,28 +5392,28 @@
         <v>25.1166128453534</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0322</v>
+        <v>0.0000322</v>
       </c>
       <c r="F2" t="n">
         <v>-0.0000000000000035527136788005</v>
       </c>
       <c r="G2" t="n">
-        <v>0.80875493362038</v>
+        <v>0.00080875493362038</v>
       </c>
       <c r="H2" t="n">
-        <v>0.110701344833333</v>
+        <v>0.000110701344833333</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.000000000000000393290182050995</v>
+        <v>-0.000000000000000000393290182050995</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.00000000000000117987054615298</v>
+        <v>-0.00000000000000000117987054615298</v>
       </c>
       <c r="K2" t="n">
-        <v>12.3922941011841</v>
+        <v>0.0123922941011841</v>
       </c>
       <c r="L2" t="n">
-        <v>16.3825852152853</v>
+        <v>0.0163825852152853</v>
       </c>
       <c r="M2" t="n">
         <v>1.32199777390047</v>
@@ -5422,7 +5422,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>4.09564630382131</v>
+        <v>0.00409564630382131</v>
       </c>
       <c r="P2" t="n">
         <v>0.330499443475117</v>
@@ -5445,28 +5445,28 @@
         <v>25.1166128453534</v>
       </c>
       <c r="E3" t="n">
-        <v>0.189202689666667</v>
+        <v>0.000189202689666667</v>
       </c>
       <c r="F3" t="n">
         <v>7.17617509867241</v>
       </c>
       <c r="G3" t="n">
-        <v>4.75213070565722</v>
+        <v>0.00475213070565722</v>
       </c>
       <c r="H3" t="n">
-        <v>0.284992698666667</v>
+        <v>0.000284992698666667</v>
       </c>
       <c r="I3" t="n">
-        <v>2.04515750747518</v>
+        <v>0.00204515750747518</v>
       </c>
       <c r="J3" t="n">
-        <v>6.13547252242555</v>
+        <v>0.00613547252242555</v>
       </c>
       <c r="K3" t="n">
-        <v>12.3922941011841</v>
+        <v>0.0123922941011841</v>
       </c>
       <c r="L3" t="n">
-        <v>16.3825852152853</v>
+        <v>0.0163825852152853</v>
       </c>
       <c r="M3" t="n">
         <v>1.32199777390047</v>
@@ -5475,7 +5475,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>4.09564630382131</v>
+        <v>0.00409564630382131</v>
       </c>
       <c r="P3" t="n">
         <v>0.330499443475117</v>
@@ -5498,28 +5498,28 @@
         <v>17.940437746681</v>
       </c>
       <c r="E4" t="n">
-        <v>0.380782707666667</v>
+        <v>0.000380782707666667</v>
       </c>
       <c r="F4" t="n">
         <v>17.940437746681</v>
       </c>
       <c r="G4" t="n">
-        <v>6.83140846190647</v>
+        <v>0.00683140846190647</v>
       </c>
       <c r="H4" t="n">
-        <v>0.190391353833333</v>
+        <v>0.000190391353833333</v>
       </c>
       <c r="I4" t="n">
-        <v>3.41570423095324</v>
+        <v>0.00341570423095324</v>
       </c>
       <c r="J4" t="n">
-        <v>10.2471126928597</v>
+        <v>0.0102471126928597</v>
       </c>
       <c r="K4" t="n">
-        <v>12.3922941011841</v>
+        <v>0.0123922941011841</v>
       </c>
       <c r="L4" t="n">
-        <v>16.3825852152853</v>
+        <v>0.0163825852152853</v>
       </c>
       <c r="M4" t="n">
         <v>1.32199777390047</v>
@@ -5528,7 +5528,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>4.09564630382131</v>
+        <v>0.00409564630382131</v>
       </c>
       <c r="P4" t="n">
         <v>0.330499443475117</v>
@@ -5618,28 +5618,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00533333333333333</v>
+        <v>0.00000533333333333333</v>
       </c>
       <c r="F2" t="n">
         <v>-105.489773950484</v>
       </c>
       <c r="G2" t="n">
-        <v>0.114818801578759</v>
+        <v>0.000114818801578759</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0855216796664502</v>
+        <v>0.0000855216796664502</v>
       </c>
       <c r="I2" t="n">
-        <v>-9.02166265587957</v>
+        <v>-0.00902166265587957</v>
       </c>
       <c r="J2" t="n">
-        <v>-54.1299759352774</v>
+        <v>-0.0541299759352774</v>
       </c>
       <c r="K2" t="n">
-        <v>198.905250114187</v>
+        <v>0.198905250114187</v>
       </c>
       <c r="L2" t="n">
-        <v>618.845274687441</v>
+        <v>0.618845274687441</v>
       </c>
       <c r="M2" t="n">
         <v>3.1112566125438</v>
@@ -5648,7 +5648,7 @@
         <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>309.42263734372</v>
+        <v>0.30942263734372</v>
       </c>
       <c r="P2" t="n">
         <v>1.5556283062719</v>
@@ -5671,28 +5671,28 @@
         <v>127.018299246502</v>
       </c>
       <c r="E3" t="n">
-        <v>0.165710025999567</v>
+        <v>0.000165710025999567</v>
       </c>
       <c r="F3" t="n">
         <v>-43.0570505920344</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0482056705586</v>
+        <v>0.0210482056705586</v>
       </c>
       <c r="H3" t="n">
-        <v>0.353786100966586</v>
+        <v>0.000353786100966586</v>
       </c>
       <c r="I3" t="n">
-        <v>-15.2329860480769</v>
+        <v>-0.0152329860480769</v>
       </c>
       <c r="J3" t="n">
-        <v>-91.3979162884613</v>
+        <v>-0.0913979162884614</v>
       </c>
       <c r="K3" t="n">
-        <v>198.905250114187</v>
+        <v>0.198905250114187</v>
       </c>
       <c r="L3" t="n">
-        <v>618.845274687441</v>
+        <v>0.618845274687441</v>
       </c>
       <c r="M3" t="n">
         <v>3.1112566125438</v>
@@ -5701,7 +5701,7 @@
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>309.42263734372</v>
+        <v>0.30942263734372</v>
       </c>
       <c r="P3" t="n">
         <v>1.5556283062719</v>
@@ -5724,28 +5724,28 @@
         <v>170.075349838536</v>
       </c>
       <c r="E4" t="n">
-        <v>0.541862175933605</v>
+        <v>0.000541862175933605</v>
       </c>
       <c r="F4" t="n">
         <v>83.9612486544672</v>
       </c>
       <c r="G4" t="n">
-        <v>92.1573991361782</v>
+        <v>0.0921573991361782</v>
       </c>
       <c r="H4" t="n">
-        <v>0.648997059192905</v>
+        <v>0.000648997059192905</v>
       </c>
       <c r="I4" t="n">
-        <v>54.4906034629135</v>
+        <v>0.0544906034629135</v>
       </c>
       <c r="J4" t="n">
-        <v>326.943620777481</v>
+        <v>0.326943620777481</v>
       </c>
       <c r="K4" t="n">
-        <v>198.905250114187</v>
+        <v>0.198905250114187</v>
       </c>
       <c r="L4" t="n">
-        <v>618.845274687441</v>
+        <v>0.618845274687441</v>
       </c>
       <c r="M4" t="n">
         <v>3.1112566125438</v>
@@ -5754,7 +5754,7 @@
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>309.42263734372</v>
+        <v>0.30942263734372</v>
       </c>
       <c r="P4" t="n">
         <v>1.5556283062719</v>
@@ -5777,28 +5777,28 @@
         <v>86.1141011840689</v>
       </c>
       <c r="E5" t="n">
-        <v>0.756131942452206</v>
+        <v>0.000756131942452206</v>
       </c>
       <c r="F5" t="n">
         <v>57.4094007893792</v>
       </c>
       <c r="G5" t="n">
-        <v>65.1136226008358</v>
+        <v>0.0651136226008358</v>
       </c>
       <c r="H5" t="n">
-        <v>0.670035231059436</v>
+        <v>0.000670035231059436</v>
       </c>
       <c r="I5" t="n">
-        <v>38.4663211228955</v>
+        <v>0.0384663211228955</v>
       </c>
       <c r="J5" t="n">
-        <v>230.797926737373</v>
+        <v>0.230797926737373</v>
       </c>
       <c r="K5" t="n">
-        <v>198.905250114187</v>
+        <v>0.198905250114187</v>
       </c>
       <c r="L5" t="n">
-        <v>618.845274687441</v>
+        <v>0.618845274687441</v>
       </c>
       <c r="M5" t="n">
         <v>3.1112566125438</v>
@@ -5807,7 +5807,7 @@
         <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>309.42263734372</v>
+        <v>0.30942263734372</v>
       </c>
       <c r="P5" t="n">
         <v>1.5556283062719</v>
@@ -5830,28 +5830,28 @@
         <v>28.7047003946896</v>
       </c>
       <c r="E6" t="n">
-        <v>0.583938519666667</v>
+        <v>0.000583938519666667</v>
       </c>
       <c r="F6" t="n">
         <v>17.940437746681</v>
       </c>
       <c r="G6" t="n">
-        <v>16.7617802559502</v>
+        <v>0.0167617802559502</v>
       </c>
       <c r="H6" t="n">
-        <v>0.464271988333333</v>
+        <v>0.000464271988333333</v>
       </c>
       <c r="I6" t="n">
-        <v>8.32924270422198</v>
+        <v>0.00832924270422198</v>
       </c>
       <c r="J6" t="n">
-        <v>49.9754562253319</v>
+        <v>0.0499754562253319</v>
       </c>
       <c r="K6" t="n">
-        <v>198.905250114187</v>
+        <v>0.198905250114187</v>
       </c>
       <c r="L6" t="n">
-        <v>618.845274687441</v>
+        <v>0.618845274687441</v>
       </c>
       <c r="M6" t="n">
         <v>3.1112566125438</v>
@@ -5860,7 +5860,7 @@
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>309.42263734372</v>
+        <v>0.30942263734372</v>
       </c>
       <c r="P6" t="n">
         <v>1.5556283062719</v>
@@ -5883,28 +5883,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>0.344605457</v>
+        <v>0.000344605457</v>
       </c>
       <c r="F7" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G7" t="n">
-        <v>3.70942364908504</v>
+        <v>0.00370942364908504</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1723027285</v>
+        <v>0.0001723027285</v>
       </c>
       <c r="I7" t="n">
-        <v>1.85471182454252</v>
+        <v>0.00185471182454252</v>
       </c>
       <c r="J7" t="n">
-        <v>11.1282709472551</v>
+        <v>0.0111282709472551</v>
       </c>
       <c r="K7" t="n">
-        <v>198.905250114187</v>
+        <v>0.198905250114187</v>
       </c>
       <c r="L7" t="n">
-        <v>618.845274687441</v>
+        <v>0.618845274687441</v>
       </c>
       <c r="M7" t="n">
         <v>3.1112566125438</v>
@@ -5913,7 +5913,7 @@
         <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>309.42263734372</v>
+        <v>0.30942263734372</v>
       </c>
       <c r="P7" t="n">
         <v>1.5556283062719</v>
@@ -6003,28 +6003,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00909162343</v>
+        <v>0.00000909162343</v>
       </c>
       <c r="F2" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0978646224973089</v>
+        <v>0.000097864622497309</v>
       </c>
       <c r="H2" t="n">
-        <v>0.017734889215</v>
+        <v>0.000017734889215</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.190903005543595</v>
+        <v>-0.000190903005543595</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.381806011087191</v>
+        <v>-0.000381806011087191</v>
       </c>
       <c r="K2" t="n">
-        <v>0.665747399677072</v>
+        <v>0.000665747399677072</v>
       </c>
       <c r="L2" t="n">
-        <v>0.567882777179763</v>
+        <v>0.000567882777179763</v>
       </c>
       <c r="M2" t="n">
         <v>0.853000368390805</v>
@@ -6033,7 +6033,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0946471295299605</v>
+        <v>0.0000946471295299605</v>
       </c>
       <c r="P2" t="n">
         <v>0.142166728065134</v>
@@ -6056,28 +6056,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.026378155</v>
+        <v>0.000026378155</v>
       </c>
       <c r="F3" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G3" t="n">
-        <v>0.567882777179763</v>
+        <v>0.000567882777179763</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0131890775</v>
+        <v>0.0000131890775</v>
       </c>
       <c r="I3" t="n">
-        <v>0.283941388589882</v>
+        <v>0.000283941388589882</v>
       </c>
       <c r="J3" t="n">
-        <v>0.567882777179763</v>
+        <v>0.000567882777179763</v>
       </c>
       <c r="K3" t="n">
-        <v>0.665747399677072</v>
+        <v>0.000665747399677072</v>
       </c>
       <c r="L3" t="n">
-        <v>0.567882777179763</v>
+        <v>0.000567882777179763</v>
       </c>
       <c r="M3" t="n">
         <v>0.853000368390805</v>
@@ -6086,7 +6086,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0946471295299605</v>
+        <v>0.0000946471295299605</v>
       </c>
       <c r="P3" t="n">
         <v>0.142166728065134</v>
@@ -6176,28 +6176,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0024</v>
+        <v>0.0000024</v>
       </c>
       <c r="F2" t="n">
         <v>-4.30570505920345</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0516684607104413</v>
+        <v>0.0000516684607104413</v>
       </c>
       <c r="H2" t="n">
-        <v>0.014341598</v>
+        <v>0.000014341598</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.061750691065662</v>
+        <v>-0.000061750691065662</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.247002764262648</v>
+        <v>-0.000247002764262648</v>
       </c>
       <c r="K2" t="n">
-        <v>6.17983922210262</v>
+        <v>0.00617983922210262</v>
       </c>
       <c r="L2" t="n">
-        <v>9.29120626336563</v>
+        <v>0.00929120626336563</v>
       </c>
       <c r="M2" t="n">
         <v>1.50347054825229</v>
@@ -6206,7 +6206,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>3.09706875445521</v>
+        <v>0.00309706875445521</v>
       </c>
       <c r="P2" t="n">
         <v>0.50115684941743</v>
@@ -6229,28 +6229,28 @@
         <v>25.8342303552207</v>
       </c>
       <c r="E3" t="n">
-        <v>0.026283196</v>
+        <v>0.000026283196</v>
       </c>
       <c r="F3" t="n">
         <v>4.30570505920344</v>
       </c>
       <c r="G3" t="n">
-        <v>0.679006139935414</v>
+        <v>0.000679006139935414</v>
       </c>
       <c r="H3" t="n">
-        <v>0.039755392</v>
+        <v>0.000039755392</v>
       </c>
       <c r="I3" t="n">
-        <v>0.171174992465016</v>
+        <v>0.000171174992465016</v>
       </c>
       <c r="J3" t="n">
-        <v>0.684699969860064</v>
+        <v>0.000684699969860064</v>
       </c>
       <c r="K3" t="n">
-        <v>6.17983922210262</v>
+        <v>0.00617983922210262</v>
       </c>
       <c r="L3" t="n">
-        <v>9.29120626336563</v>
+        <v>0.00929120626336563</v>
       </c>
       <c r="M3" t="n">
         <v>1.50347054825229</v>
@@ -6259,7 +6259,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>3.09706875445521</v>
+        <v>0.00309706875445521</v>
       </c>
       <c r="P3" t="n">
         <v>0.50115684941743</v>
@@ -6282,28 +6282,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E4" t="n">
-        <v>0.053227588</v>
+        <v>0.000053227588</v>
       </c>
       <c r="F4" t="n">
         <v>0.0000000000000035527136788005</v>
       </c>
       <c r="G4" t="n">
-        <v>1.14591147470398</v>
+        <v>0.00114591147470398</v>
       </c>
       <c r="H4" t="n">
-        <v>0.126556848333333</v>
+        <v>0.000126556848333333</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000000000000000449620246219714</v>
+        <v>0.000000000000000000449620246219714</v>
       </c>
       <c r="J4" t="n">
-        <v>0.00000000000000179848098487885</v>
+        <v>0.00000000000000000179848098487885</v>
       </c>
       <c r="K4" t="n">
-        <v>6.17983922210262</v>
+        <v>0.00617983922210262</v>
       </c>
       <c r="L4" t="n">
-        <v>9.29120626336563</v>
+        <v>0.00929120626336563</v>
       </c>
       <c r="M4" t="n">
         <v>1.50347054825229</v>
@@ -6312,7 +6312,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>3.09706875445521</v>
+        <v>0.00309706875445521</v>
       </c>
       <c r="P4" t="n">
         <v>0.50115684941743</v>
@@ -6335,28 +6335,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E5" t="n">
-        <v>0.199886108666667</v>
+        <v>0.000199886108666667</v>
       </c>
       <c r="F5" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G5" t="n">
-        <v>4.30325314675278</v>
+        <v>0.00430325314675278</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0999430543333333</v>
+        <v>0.0000999430543333333</v>
       </c>
       <c r="I5" t="n">
-        <v>2.15162657337639</v>
+        <v>0.00215162657337639</v>
       </c>
       <c r="J5" t="n">
-        <v>8.60650629350556</v>
+        <v>0.00860650629350556</v>
       </c>
       <c r="K5" t="n">
-        <v>6.17983922210262</v>
+        <v>0.00617983922210262</v>
       </c>
       <c r="L5" t="n">
-        <v>9.29120626336563</v>
+        <v>0.00929120626336563</v>
       </c>
       <c r="M5" t="n">
         <v>1.50347054825229</v>
@@ -6365,7 +6365,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>3.09706875445521</v>
+        <v>0.00309706875445521</v>
       </c>
       <c r="P5" t="n">
         <v>0.50115684941743</v>
@@ -6455,37 +6455,37 @@
         <v>43.0570505920344</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00714072879</v>
+        <v>0.00000714072879</v>
       </c>
       <c r="F2" t="n">
         <v>32.2927879440258</v>
       </c>
       <c r="G2" t="n">
-        <v>0.307458720775027</v>
+        <v>0.000307458720775027</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00687999482</v>
+        <v>0.00000687999482</v>
       </c>
       <c r="I2" t="n">
-        <v>0.222174213778256</v>
+        <v>0.000222174213778256</v>
       </c>
       <c r="J2" t="n">
-        <v>1.11087106889128</v>
+        <v>0.00111087106889128</v>
       </c>
       <c r="K2" t="n">
-        <v>108.717009924112</v>
+        <v>0.108717009924112</v>
       </c>
       <c r="L2" t="n">
-        <v>271.053873983854</v>
+        <v>0.271053873983854</v>
       </c>
       <c r="M2" t="n">
-        <v>2.49320574740842</v>
+        <v>2.49320574740841</v>
       </c>
       <c r="N2" t="n">
         <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>112.939114159939</v>
+        <v>0.112939114159939</v>
       </c>
       <c r="P2" t="n">
         <v>1.03883572808684</v>
@@ -6508,37 +6508,37 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00661926085</v>
+        <v>0.00000661926085</v>
       </c>
       <c r="F3" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0712514623250807</v>
+        <v>0.0000712514623250807</v>
       </c>
       <c r="H3" t="n">
-        <v>0.020082659235</v>
+        <v>0.000020082659235</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.216175018675996</v>
+        <v>-0.000216175018675996</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.08087509337998</v>
+        <v>-0.00108087509337998</v>
       </c>
       <c r="K3" t="n">
-        <v>108.717009924112</v>
+        <v>0.108717009924112</v>
       </c>
       <c r="L3" t="n">
-        <v>271.053873983854</v>
+        <v>0.271053873983854</v>
       </c>
       <c r="M3" t="n">
-        <v>2.49320574740842</v>
+        <v>2.49320574740841</v>
       </c>
       <c r="N3" t="n">
         <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>112.939114159939</v>
+        <v>0.112939114159939</v>
       </c>
       <c r="P3" t="n">
         <v>1.03883572808684</v>
@@ -6561,37 +6561,37 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03354605762</v>
+        <v>0.00003354605762</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>0.722197150053821</v>
+        <v>0.000722197150053821</v>
       </c>
       <c r="H4" t="n">
-        <v>0.49762280316</v>
+        <v>0.00049762280316</v>
       </c>
       <c r="I4" t="n">
-        <v>5.35654255285253</v>
+        <v>0.00535654255285253</v>
       </c>
       <c r="J4" t="n">
-        <v>26.7827127642627</v>
+        <v>0.0267827127642627</v>
       </c>
       <c r="K4" t="n">
-        <v>108.717009924112</v>
+        <v>0.108717009924112</v>
       </c>
       <c r="L4" t="n">
-        <v>271.053873983854</v>
+        <v>0.271053873983854</v>
       </c>
       <c r="M4" t="n">
-        <v>2.49320574740842</v>
+        <v>2.49320574740841</v>
       </c>
       <c r="N4" t="n">
         <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>112.939114159939</v>
+        <v>0.112939114159939</v>
       </c>
       <c r="P4" t="n">
         <v>1.03883572808684</v>
@@ -6614,16 +6614,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9616995487</v>
+        <v>0.0009616995487</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>10.3519865306782</v>
+        <v>0.0103519865306781</v>
       </c>
       <c r="H5" t="n">
-        <v>4.99876796535</v>
+        <v>0.00499876796535</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -6632,19 +6632,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>108.717009924112</v>
+        <v>0.108717009924112</v>
       </c>
       <c r="L5" t="n">
-        <v>271.053873983854</v>
+        <v>0.271053873983854</v>
       </c>
       <c r="M5" t="n">
-        <v>2.49320574740842</v>
+        <v>2.49320574740841</v>
       </c>
       <c r="N5" t="n">
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>112.939114159939</v>
+        <v>0.112939114159939</v>
       </c>
       <c r="P5" t="n">
         <v>1.03883572808684</v>
@@ -6667,37 +6667,37 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>9.035836382</v>
+        <v>0.009035836382</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>97.2641160602799</v>
+        <v>0.0972641160602799</v>
       </c>
       <c r="H6" t="n">
-        <v>4.517918191</v>
+        <v>0.004517918191</v>
       </c>
       <c r="I6" t="n">
-        <v>48.6320580301399</v>
+        <v>0.0486320580301399</v>
       </c>
       <c r="J6" t="n">
-        <v>243.1602901507</v>
+        <v>0.2431602901507</v>
       </c>
       <c r="K6" t="n">
-        <v>108.717009924112</v>
+        <v>0.108717009924112</v>
       </c>
       <c r="L6" t="n">
-        <v>271.053873983854</v>
+        <v>0.271053873983854</v>
       </c>
       <c r="M6" t="n">
-        <v>2.49320574740842</v>
+        <v>2.49320574740841</v>
       </c>
       <c r="N6" t="n">
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>112.939114159939</v>
+        <v>0.112939114159939</v>
       </c>
       <c r="P6" t="n">
         <v>1.03883572808684</v>
@@ -6787,28 +6787,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.099225422</v>
+        <v>0.000099225422</v>
       </c>
       <c r="F2" t="n">
         <v>-21.5285252960172</v>
       </c>
       <c r="G2" t="n">
-        <v>1.06808850376749</v>
+        <v>0.00106808850376749</v>
       </c>
       <c r="H2" t="n">
-        <v>0.36706459275</v>
+        <v>0.00036706459275</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.90235937029064</v>
+        <v>-0.00790235937029064</v>
       </c>
       <c r="J2" t="n">
-        <v>-39.5117968514532</v>
+        <v>-0.0395117968514532</v>
       </c>
       <c r="K2" t="n">
-        <v>362.680349205089</v>
+        <v>0.362680349205089</v>
       </c>
       <c r="L2" t="n">
-        <v>666.954520413228</v>
+        <v>0.666954520413228</v>
       </c>
       <c r="M2" t="n">
         <v>1.83895962898193</v>
@@ -6817,7 +6817,7 @@
         <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>277.897716838845</v>
+        <v>0.277897716838845</v>
       </c>
       <c r="P2" t="n">
         <v>0.766233178742472</v>
@@ -6840,28 +6840,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6349037635</v>
+        <v>0.0006349037635</v>
       </c>
       <c r="F3" t="n">
         <v>14.3523501973448</v>
       </c>
       <c r="G3" t="n">
-        <v>20.5028125995694</v>
+        <v>0.0205028125995694</v>
       </c>
       <c r="H3" t="n">
-        <v>0.634824507583333</v>
+        <v>0.000634824507583333</v>
       </c>
       <c r="I3" t="n">
-        <v>9.11122364669298</v>
+        <v>0.00911122364669298</v>
       </c>
       <c r="J3" t="n">
-        <v>45.5561182334649</v>
+        <v>0.0455561182334649</v>
       </c>
       <c r="K3" t="n">
-        <v>362.680349205089</v>
+        <v>0.362680349205089</v>
       </c>
       <c r="L3" t="n">
-        <v>666.954520413228</v>
+        <v>0.666954520413228</v>
       </c>
       <c r="M3" t="n">
         <v>1.83895962898193</v>
@@ -6870,7 +6870,7 @@
         <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>277.897716838845</v>
+        <v>0.277897716838845</v>
       </c>
       <c r="P3" t="n">
         <v>0.766233178742472</v>
@@ -6893,28 +6893,28 @@
         <v>17.940437746681</v>
       </c>
       <c r="E4" t="n">
-        <v>0.634745251666667</v>
+        <v>0.000634745251666667</v>
       </c>
       <c r="F4" t="n">
         <v>-19.7344815213491</v>
       </c>
       <c r="G4" t="n">
-        <v>11.3876076725272</v>
+        <v>0.0113876076725272</v>
       </c>
       <c r="H4" t="n">
-        <v>1.39451467595833</v>
+        <v>0.00139451467595833</v>
       </c>
       <c r="I4" t="n">
-        <v>-27.5200241039499</v>
+        <v>-0.0275200241039499</v>
       </c>
       <c r="J4" t="n">
-        <v>-137.600120519749</v>
+        <v>-0.137600120519749</v>
       </c>
       <c r="K4" t="n">
-        <v>362.680349205089</v>
+        <v>0.362680349205089</v>
       </c>
       <c r="L4" t="n">
-        <v>666.954520413228</v>
+        <v>0.666954520413228</v>
       </c>
       <c r="M4" t="n">
         <v>1.83895962898193</v>
@@ -6923,7 +6923,7 @@
         <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>277.897716838845</v>
+        <v>0.277897716838845</v>
       </c>
       <c r="P4" t="n">
         <v>0.766233178742472</v>
@@ -6946,28 +6946,28 @@
         <v>37.6749192680301</v>
       </c>
       <c r="E5" t="n">
-        <v>2.15428410025</v>
+        <v>0.00215428410025</v>
       </c>
       <c r="F5" t="n">
         <v>-16.1463939720129</v>
       </c>
       <c r="G5" t="n">
-        <v>81.1624795573197</v>
+        <v>0.0811624795573197</v>
       </c>
       <c r="H5" t="n">
-        <v>3.386258512625</v>
+        <v>0.003386258512625</v>
       </c>
       <c r="I5" t="n">
-        <v>-54.6758640359257</v>
+        <v>-0.0546758640359258</v>
       </c>
       <c r="J5" t="n">
-        <v>-273.379320179629</v>
+        <v>-0.273379320179629</v>
       </c>
       <c r="K5" t="n">
-        <v>362.680349205089</v>
+        <v>0.362680349205089</v>
       </c>
       <c r="L5" t="n">
-        <v>666.954520413228</v>
+        <v>0.666954520413228</v>
       </c>
       <c r="M5" t="n">
         <v>1.83895962898193</v>
@@ -6976,7 +6976,7 @@
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>277.897716838845</v>
+        <v>0.277897716838845</v>
       </c>
       <c r="P5" t="n">
         <v>0.766233178742472</v>
@@ -6999,28 +6999,28 @@
         <v>53.8213132400431</v>
       </c>
       <c r="E6" t="n">
-        <v>4.618232925</v>
+        <v>0.004618232925</v>
       </c>
       <c r="F6" t="n">
         <v>53.8213132400431</v>
       </c>
       <c r="G6" t="n">
-        <v>248.559360871905</v>
+        <v>0.248559360871905</v>
       </c>
       <c r="H6" t="n">
-        <v>2.3091164625</v>
+        <v>0.0023091164625</v>
       </c>
       <c r="I6" t="n">
-        <v>124.279680435953</v>
+        <v>0.124279680435953</v>
       </c>
       <c r="J6" t="n">
-        <v>621.398402179763</v>
+        <v>0.621398402179763</v>
       </c>
       <c r="K6" t="n">
-        <v>362.680349205089</v>
+        <v>0.362680349205089</v>
       </c>
       <c r="L6" t="n">
-        <v>666.954520413228</v>
+        <v>0.666954520413228</v>
       </c>
       <c r="M6" t="n">
         <v>1.83895962898193</v>
@@ -7029,7 +7029,7 @@
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>277.897716838845</v>
+        <v>0.277897716838845</v>
       </c>
       <c r="P6" t="n">
         <v>0.766233178742472</v>
@@ -7119,16 +7119,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.419015106</v>
+        <v>0.000419015106</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.51038865446717</v>
+        <v>0.00451038865446717</v>
       </c>
       <c r="H2" t="n">
-        <v>0.608157079</v>
+        <v>0.000608157079</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -7137,10 +7137,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>13.0927250592034</v>
+        <v>0.0130927250592034</v>
       </c>
       <c r="L2" t="n">
-        <v>8.58233640473628</v>
+        <v>0.00858233640473628</v>
       </c>
       <c r="M2" t="n">
         <v>0.655504210615297</v>
@@ -7149,7 +7149,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.43038940078938</v>
+        <v>0.00143038940078938</v>
       </c>
       <c r="P2" t="n">
         <v>0.109250701769216</v>
@@ -7172,28 +7172,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.797299052</v>
+        <v>0.000797299052</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>8.58233640473628</v>
+        <v>0.00858233640473628</v>
       </c>
       <c r="H3" t="n">
-        <v>0.398649526</v>
+        <v>0.000398649526</v>
       </c>
       <c r="I3" t="n">
-        <v>4.29116820236814</v>
+        <v>0.00429116820236814</v>
       </c>
       <c r="J3" t="n">
-        <v>8.58233640473628</v>
+        <v>0.00858233640473628</v>
       </c>
       <c r="K3" t="n">
-        <v>13.0927250592034</v>
+        <v>0.0130927250592034</v>
       </c>
       <c r="L3" t="n">
-        <v>8.58233640473628</v>
+        <v>0.00858233640473628</v>
       </c>
       <c r="M3" t="n">
         <v>0.655504210615297</v>
@@ -7202,7 +7202,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.43038940078938</v>
+        <v>0.00143038940078938</v>
       </c>
       <c r="P3" t="n">
         <v>0.109250701769216</v>
@@ -7292,28 +7292,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.005416747</v>
+        <v>0.000005416747</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0583072874058127</v>
+        <v>0.0000583072874058127</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0027083735</v>
+        <v>0.0000027083735</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0291536437029064</v>
+        <v>0.0000291536437029064</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0291536437029064</v>
+        <v>0.0000291536437029064</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0583072874058127</v>
+        <v>0.0000583072874058127</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0291536437029064</v>
+        <v>0.0000291536437029064</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -7322,7 +7322,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00242947030857553</v>
+        <v>0.00000242947030857553</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -7412,28 +7412,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.389940809</v>
+        <v>0.000389940809</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>4.19742528525296</v>
+        <v>0.00419742528525296</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1949704045</v>
+        <v>0.0001949704045</v>
       </c>
       <c r="I2" t="n">
-        <v>2.09871264262648</v>
+        <v>0.00209871264262648</v>
       </c>
       <c r="J2" t="n">
-        <v>2.09871264262648</v>
+        <v>0.00209871264262648</v>
       </c>
       <c r="K2" t="n">
-        <v>4.19742528525296</v>
+        <v>0.00419742528525296</v>
       </c>
       <c r="L2" t="n">
-        <v>2.09871264262648</v>
+        <v>0.00209871264262648</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -7442,7 +7442,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.174892720218873</v>
+        <v>0.000174892720218873</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -7532,28 +7532,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E2" t="n">
-        <v>0.452915476</v>
+        <v>0.000452915476</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>14.6259034230355</v>
+        <v>0.0146259034230355</v>
       </c>
       <c r="H2" t="n">
-        <v>0.534594825</v>
+        <v>0.000534594825</v>
       </c>
       <c r="I2" t="n">
-        <v>5.7545191065662</v>
+        <v>0.0057545191065662</v>
       </c>
       <c r="J2" t="n">
-        <v>63.2997101722282</v>
+        <v>0.0632997101722282</v>
       </c>
       <c r="K2" t="n">
-        <v>735.217340828848</v>
+        <v>0.735217340828848</v>
       </c>
       <c r="L2" t="n">
-        <v>2451.10064243272</v>
+        <v>2.45110064243272</v>
       </c>
       <c r="M2" t="n">
         <v>3.33384498204228</v>
@@ -7562,7 +7562,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O2" t="n">
-        <v>2246.84225556333</v>
+        <v>2.24684225556333</v>
       </c>
       <c r="P2" t="n">
         <v>3.05602456687209</v>
@@ -7585,16 +7585,16 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.616274174</v>
+        <v>0.000616274174</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>13.2674741442411</v>
+        <v>0.0132674741442411</v>
       </c>
       <c r="H3" t="n">
-        <v>0.844033445</v>
+        <v>0.000844033445</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -7603,10 +7603,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>735.217340828848</v>
+        <v>0.735217340828848</v>
       </c>
       <c r="L3" t="n">
-        <v>2451.10064243272</v>
+        <v>2.45110064243272</v>
       </c>
       <c r="M3" t="n">
         <v>3.33384498204228</v>
@@ -7615,7 +7615,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O3" t="n">
-        <v>2246.84225556333</v>
+        <v>2.24684225556333</v>
       </c>
       <c r="P3" t="n">
         <v>3.05602456687209</v>
@@ -7638,28 +7638,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E4" t="n">
-        <v>1.071792716</v>
+        <v>0.001071792716</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>23.074116598493</v>
+        <v>0.023074116598493</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9570303525</v>
+        <v>0.0009570303525</v>
       </c>
       <c r="I4" t="n">
-        <v>10.3017260764263</v>
+        <v>0.0103017260764263</v>
       </c>
       <c r="J4" t="n">
-        <v>113.318986840689</v>
+        <v>0.113318986840689</v>
       </c>
       <c r="K4" t="n">
-        <v>735.217340828848</v>
+        <v>0.735217340828848</v>
       </c>
       <c r="L4" t="n">
-        <v>2451.10064243272</v>
+        <v>2.45110064243272</v>
       </c>
       <c r="M4" t="n">
         <v>3.33384498204228</v>
@@ -7668,7 +7668,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O4" t="n">
-        <v>2246.84225556333</v>
+        <v>2.24684225556333</v>
       </c>
       <c r="P4" t="n">
         <v>3.05602456687209</v>
@@ -7691,16 +7691,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.842267989</v>
+        <v>0.000842267989</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>9.06639385360603</v>
+        <v>0.00906639385360603</v>
       </c>
       <c r="H5" t="n">
-        <v>1.0383658585</v>
+        <v>0.0010383658585</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -7709,10 +7709,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>735.217340828848</v>
+        <v>0.735217340828848</v>
       </c>
       <c r="L5" t="n">
-        <v>2451.10064243272</v>
+        <v>2.45110064243272</v>
       </c>
       <c r="M5" t="n">
         <v>3.33384498204228</v>
@@ -7721,7 +7721,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O5" t="n">
-        <v>2246.84225556333</v>
+        <v>2.24684225556333</v>
       </c>
       <c r="P5" t="n">
         <v>3.05602456687209</v>
@@ -7744,28 +7744,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>1.234463728</v>
+        <v>0.001234463728</v>
       </c>
       <c r="F6" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>13.2880917976319</v>
+        <v>0.0132880917976319</v>
       </c>
       <c r="H6" t="n">
-        <v>2.336320868</v>
+        <v>0.002336320868</v>
       </c>
       <c r="I6" t="n">
-        <v>-25.1487714531755</v>
+        <v>-0.0251487714531755</v>
       </c>
       <c r="J6" t="n">
-        <v>-276.63648598493</v>
+        <v>-0.27663648598493</v>
       </c>
       <c r="K6" t="n">
-        <v>735.217340828848</v>
+        <v>0.735217340828848</v>
       </c>
       <c r="L6" t="n">
-        <v>2451.10064243272</v>
+        <v>2.45110064243272</v>
       </c>
       <c r="M6" t="n">
         <v>3.33384498204228</v>
@@ -7774,7 +7774,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O6" t="n">
-        <v>2246.84225556333</v>
+        <v>2.24684225556333</v>
       </c>
       <c r="P6" t="n">
         <v>3.05602456687209</v>
@@ -7797,28 +7797,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E7" t="n">
-        <v>3.438178008</v>
+        <v>0.003438178008</v>
       </c>
       <c r="F7" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G7" t="n">
-        <v>74.0189022174381</v>
+        <v>0.0740189022174381</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6125617485</v>
+        <v>0.0036125617485</v>
       </c>
       <c r="I7" t="n">
-        <v>38.8865634930032</v>
+        <v>0.0388865634930032</v>
       </c>
       <c r="J7" t="n">
-        <v>427.752198423036</v>
+        <v>0.427752198423036</v>
       </c>
       <c r="K7" t="n">
-        <v>735.217340828848</v>
+        <v>0.735217340828848</v>
       </c>
       <c r="L7" t="n">
-        <v>2451.10064243272</v>
+        <v>2.45110064243272</v>
       </c>
       <c r="M7" t="n">
         <v>3.33384498204228</v>
@@ -7827,7 +7827,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O7" t="n">
-        <v>2246.84225556333</v>
+        <v>2.24684225556333</v>
       </c>
       <c r="P7" t="n">
         <v>3.05602456687209</v>
@@ -7850,28 +7850,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E8" t="n">
-        <v>3.786945489</v>
+        <v>0.003786945489</v>
       </c>
       <c r="F8" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G8" t="n">
-        <v>40.7636758772874</v>
+        <v>0.0407636758772874</v>
       </c>
       <c r="H8" t="n">
-        <v>7.6242655675</v>
+        <v>0.0076242655675</v>
       </c>
       <c r="I8" t="n">
-        <v>-82.0695970667384</v>
+        <v>-0.0820695970667384</v>
       </c>
       <c r="J8" t="n">
-        <v>-902.765567734123</v>
+        <v>-0.902765567734123</v>
       </c>
       <c r="K8" t="n">
-        <v>735.217340828848</v>
+        <v>0.735217340828848</v>
       </c>
       <c r="L8" t="n">
-        <v>2451.10064243272</v>
+        <v>2.45110064243272</v>
       </c>
       <c r="M8" t="n">
         <v>3.33384498204228</v>
@@ -7880,7 +7880,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O8" t="n">
-        <v>2246.84225556333</v>
+        <v>2.24684225556333</v>
       </c>
       <c r="P8" t="n">
         <v>3.05602456687209</v>
@@ -7903,28 +7903,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E9" t="n">
-        <v>11.461585646</v>
+        <v>0.011461585646</v>
       </c>
       <c r="F9" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G9" t="n">
-        <v>246.751036512379</v>
+        <v>0.246751036512379</v>
       </c>
       <c r="H9" t="n">
-        <v>9.174313756</v>
+        <v>0.009174313756</v>
       </c>
       <c r="I9" t="n">
-        <v>98.7547228848224</v>
+        <v>0.0987547228848224</v>
       </c>
       <c r="J9" t="n">
-        <v>1086.30195173305</v>
+        <v>1.08630195173305</v>
       </c>
       <c r="K9" t="n">
-        <v>735.217340828848</v>
+        <v>0.735217340828848</v>
       </c>
       <c r="L9" t="n">
-        <v>2451.10064243272</v>
+        <v>2.45110064243272</v>
       </c>
       <c r="M9" t="n">
         <v>3.33384498204228</v>
@@ -7933,7 +7933,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O9" t="n">
-        <v>2246.84225556333</v>
+        <v>2.24684225556333</v>
       </c>
       <c r="P9" t="n">
         <v>3.05602456687209</v>
@@ -7956,16 +7956,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E10" t="n">
-        <v>6.887041866</v>
+        <v>0.006887041866</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>74.1339275134553</v>
+        <v>0.0741339275134553</v>
       </c>
       <c r="H10" t="n">
-        <v>7.5296447405</v>
+        <v>0.0075296447405</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -7974,10 +7974,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>735.217340828848</v>
+        <v>0.735217340828848</v>
       </c>
       <c r="L10" t="n">
-        <v>2451.10064243272</v>
+        <v>2.45110064243272</v>
       </c>
       <c r="M10" t="n">
         <v>3.33384498204228</v>
@@ -7986,7 +7986,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O10" t="n">
-        <v>2246.84225556333</v>
+        <v>2.24684225556333</v>
       </c>
       <c r="P10" t="n">
         <v>3.05602456687209</v>
@@ -8009,16 +8009,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E11" t="n">
-        <v>8.172247615</v>
+        <v>0.008172247615</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>87.968219752422</v>
+        <v>0.087968219752422</v>
       </c>
       <c r="H11" t="n">
-        <v>10.5082821875</v>
+        <v>0.0105082821875</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -8027,10 +8027,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>735.217340828848</v>
+        <v>0.735217340828848</v>
       </c>
       <c r="L11" t="n">
-        <v>2451.10064243272</v>
+        <v>2.45110064243272</v>
       </c>
       <c r="M11" t="n">
         <v>3.33384498204228</v>
@@ -8039,7 +8039,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O11" t="n">
-        <v>2246.84225556333</v>
+        <v>2.24684225556333</v>
       </c>
       <c r="P11" t="n">
         <v>3.05602456687209</v>
@@ -8062,28 +8062,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E12" t="n">
-        <v>12.84431676</v>
+        <v>0.01284431676</v>
       </c>
       <c r="F12" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G12" t="n">
-        <v>138.259599138859</v>
+        <v>0.138259599138859</v>
       </c>
       <c r="H12" t="n">
-        <v>6.42215838</v>
+        <v>0.00642215838</v>
       </c>
       <c r="I12" t="n">
-        <v>69.1297995694295</v>
+        <v>0.0691297995694295</v>
       </c>
       <c r="J12" t="n">
-        <v>760.427795263724</v>
+        <v>0.760427795263724</v>
       </c>
       <c r="K12" t="n">
-        <v>735.217340828848</v>
+        <v>0.735217340828848</v>
       </c>
       <c r="L12" t="n">
-        <v>2451.10064243272</v>
+        <v>2.45110064243272</v>
       </c>
       <c r="M12" t="n">
         <v>3.33384498204228</v>
@@ -8092,7 +8092,7 @@
         <v>1.09090909090909</v>
       </c>
       <c r="O12" t="n">
-        <v>2246.84225556333</v>
+        <v>2.24684225556333</v>
       </c>
       <c r="P12" t="n">
         <v>3.05602456687209</v>
@@ -8182,28 +8182,28 @@
         <v>16.1463939720129</v>
       </c>
       <c r="E2" t="n">
-        <v>0.29385538</v>
+        <v>0.00029385538</v>
       </c>
       <c r="F2" t="n">
         <v>-48.4391819160387</v>
       </c>
       <c r="G2" t="n">
-        <v>4.74470473627557</v>
+        <v>0.00474470473627557</v>
       </c>
       <c r="H2" t="n">
-        <v>1.246414562</v>
+        <v>0.001246414562</v>
       </c>
       <c r="I2" t="n">
-        <v>-60.3753017115178</v>
+        <v>-0.0603753017115178</v>
       </c>
       <c r="J2" t="n">
-        <v>-181.125905134553</v>
+        <v>-0.181125905134553</v>
       </c>
       <c r="K2" t="n">
-        <v>153.348038073197</v>
+        <v>0.153348038073197</v>
       </c>
       <c r="L2" t="n">
-        <v>236.759611485468</v>
+        <v>0.236759611485468</v>
       </c>
       <c r="M2" t="n">
         <v>1.5439363584975</v>
@@ -8212,7 +8212,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>59.189902871367</v>
+        <v>0.0591899028713671</v>
       </c>
       <c r="P2" t="n">
         <v>0.385984089624376</v>
@@ -8235,28 +8235,28 @@
         <v>64.5855758880517</v>
       </c>
       <c r="E3" t="n">
-        <v>2.198973744</v>
+        <v>0.002198973744</v>
       </c>
       <c r="F3" t="n">
         <v>53.8213132400431</v>
       </c>
       <c r="G3" t="n">
-        <v>142.021985618945</v>
+        <v>0.142021985618945</v>
       </c>
       <c r="H3" t="n">
-        <v>1.4051904735</v>
+        <v>0.0014051904735</v>
       </c>
       <c r="I3" t="n">
-        <v>75.6291966361679</v>
+        <v>0.0756291966361679</v>
       </c>
       <c r="J3" t="n">
-        <v>226.887589908504</v>
+        <v>0.226887589908504</v>
       </c>
       <c r="K3" t="n">
-        <v>153.348038073197</v>
+        <v>0.153348038073197</v>
       </c>
       <c r="L3" t="n">
-        <v>236.759611485468</v>
+        <v>0.236759611485468</v>
       </c>
       <c r="M3" t="n">
         <v>1.5439363584975</v>
@@ -8265,7 +8265,7 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>59.189902871367</v>
+        <v>0.0591899028713671</v>
       </c>
       <c r="P3" t="n">
         <v>0.385984089624376</v>
@@ -8288,28 +8288,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.611407203</v>
+        <v>0.000611407203</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>6.58134771797632</v>
+        <v>0.00658134771797632</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3057036015</v>
+        <v>0.0003057036015</v>
       </c>
       <c r="I4" t="n">
-        <v>3.29067385898816</v>
+        <v>0.00329067385898816</v>
       </c>
       <c r="J4" t="n">
-        <v>9.87202157696448</v>
+        <v>0.00987202157696448</v>
       </c>
       <c r="K4" t="n">
-        <v>153.348038073197</v>
+        <v>0.153348038073197</v>
       </c>
       <c r="L4" t="n">
-        <v>236.759611485468</v>
+        <v>0.236759611485468</v>
       </c>
       <c r="M4" t="n">
         <v>1.5439363584975</v>
@@ -8318,7 +8318,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>59.189902871367</v>
+        <v>0.0591899028713671</v>
       </c>
       <c r="P4" t="n">
         <v>0.385984089624376</v>
@@ -8408,28 +8408,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.111</v>
+        <v>0.000111</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>1.19483315392896</v>
+        <v>0.00119483315392896</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0555</v>
+        <v>0.0000555</v>
       </c>
       <c r="I2" t="n">
-        <v>0.597416576964478</v>
+        <v>0.000597416576964478</v>
       </c>
       <c r="J2" t="n">
-        <v>0.597416576964478</v>
+        <v>0.000597416576964478</v>
       </c>
       <c r="K2" t="n">
-        <v>1.19483315392896</v>
+        <v>0.00119483315392896</v>
       </c>
       <c r="L2" t="n">
-        <v>0.597416576964478</v>
+        <v>0.000597416576964478</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -8438,7 +8438,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0497847147470398</v>
+        <v>0.0000497847147470398</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -8528,16 +8528,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0097</v>
+        <v>0.0000097</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.104413347685684</v>
+        <v>0.000104413347685684</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5168381405</v>
+        <v>0.0005168381405</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>11.1267629817008</v>
+        <v>0.0111267629817008</v>
       </c>
       <c r="L2" t="n">
-        <v>11.0223496340151</v>
+        <v>0.0110223496340151</v>
       </c>
       <c r="M2" t="n">
         <v>0.990616017627283</v>
@@ -8558,7 +8558,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.83705827233585</v>
+        <v>0.00183705827233584</v>
       </c>
       <c r="P2" t="n">
         <v>0.165102669604547</v>
@@ -8581,28 +8581,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>1.023976281</v>
+        <v>0.001023976281</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>11.0223496340151</v>
+        <v>0.0110223496340151</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5119881405</v>
+        <v>0.0005119881405</v>
       </c>
       <c r="I3" t="n">
-        <v>5.51117481700753</v>
+        <v>0.00551117481700754</v>
       </c>
       <c r="J3" t="n">
-        <v>11.0223496340151</v>
+        <v>0.0110223496340151</v>
       </c>
       <c r="K3" t="n">
-        <v>11.1267629817008</v>
+        <v>0.0111267629817008</v>
       </c>
       <c r="L3" t="n">
-        <v>11.0223496340151</v>
+        <v>0.0110223496340151</v>
       </c>
       <c r="M3" t="n">
         <v>0.990616017627283</v>
@@ -8611,7 +8611,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.83705827233585</v>
+        <v>0.00183705827233584</v>
       </c>
       <c r="P3" t="n">
         <v>0.165102669604547</v>
@@ -8701,28 +8701,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0134</v>
+        <v>0.0000134</v>
       </c>
       <c r="F2" t="n">
         <v>-43.0570505920344</v>
       </c>
       <c r="G2" t="n">
-        <v>0.288482238966631</v>
+        <v>0.000288482238966631</v>
       </c>
       <c r="H2" t="n">
-        <v>0.120874352076923</v>
+        <v>0.000120874352076923</v>
       </c>
       <c r="I2" t="n">
-        <v>-5.20449309265546</v>
+        <v>-0.00520449309265546</v>
       </c>
       <c r="J2" t="n">
-        <v>-31.2269585559328</v>
+        <v>-0.0312269585559328</v>
       </c>
       <c r="K2" t="n">
-        <v>60.2235176654798</v>
+        <v>0.0602235176654798</v>
       </c>
       <c r="L2" t="n">
-        <v>149.816178436201</v>
+        <v>0.149816178436201</v>
       </c>
       <c r="M2" t="n">
         <v>2.48766900778491</v>
@@ -8731,7 +8731,7 @@
         <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>74.9080892181005</v>
+        <v>0.0749080892181005</v>
       </c>
       <c r="P2" t="n">
         <v>1.24383450389245</v>
@@ -8754,28 +8754,28 @@
         <v>64.5855758880517</v>
       </c>
       <c r="E3" t="n">
-        <v>0.228348704153846</v>
+        <v>0.000228348704153846</v>
       </c>
       <c r="F3" t="n">
         <v>49.5156081808396</v>
       </c>
       <c r="G3" t="n">
-        <v>14.7480325610665</v>
+        <v>0.0147480325610665</v>
       </c>
       <c r="H3" t="n">
-        <v>0.193187938576923</v>
+        <v>0.000193187938576923</v>
       </c>
       <c r="I3" t="n">
-        <v>9.56581827183903</v>
+        <v>0.00956581827183903</v>
       </c>
       <c r="J3" t="n">
-        <v>57.3949096310342</v>
+        <v>0.0573949096310342</v>
       </c>
       <c r="K3" t="n">
-        <v>60.2235176654798</v>
+        <v>0.0602235176654798</v>
       </c>
       <c r="L3" t="n">
-        <v>149.816178436201</v>
+        <v>0.149816178436201</v>
       </c>
       <c r="M3" t="n">
         <v>2.48766900778491</v>
@@ -8784,7 +8784,7 @@
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>74.9080892181005</v>
+        <v>0.0749080892181005</v>
       </c>
       <c r="P3" t="n">
         <v>1.24383450389245</v>
@@ -8807,28 +8807,28 @@
         <v>15.0699677072121</v>
       </c>
       <c r="E4" t="n">
-        <v>0.158027173</v>
+        <v>0.000158027173</v>
       </c>
       <c r="F4" t="n">
         <v>4.30570505920345</v>
       </c>
       <c r="G4" t="n">
-        <v>2.38146439397201</v>
+        <v>0.00238146439397201</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3420116125</v>
+        <v>0.0003420116125</v>
       </c>
       <c r="I4" t="n">
-        <v>1.47260113024758</v>
+        <v>0.00147260113024758</v>
       </c>
       <c r="J4" t="n">
-        <v>8.83560678148547</v>
+        <v>0.00883560678148547</v>
       </c>
       <c r="K4" t="n">
-        <v>60.2235176654798</v>
+        <v>0.0602235176654798</v>
       </c>
       <c r="L4" t="n">
-        <v>149.816178436201</v>
+        <v>0.149816178436201</v>
       </c>
       <c r="M4" t="n">
         <v>2.48766900778491</v>
@@ -8837,7 +8837,7 @@
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>74.9080892181005</v>
+        <v>0.0749080892181005</v>
       </c>
       <c r="P4" t="n">
         <v>1.24383450389245</v>
@@ -8860,16 +8860,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.525996052</v>
+        <v>0.000525996052</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5.6619596555436</v>
+        <v>0.0056619596555436</v>
       </c>
       <c r="H5" t="n">
-        <v>0.694132595</v>
+        <v>0.000694132595</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -8878,10 +8878,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60.2235176654798</v>
+        <v>0.0602235176654798</v>
       </c>
       <c r="L5" t="n">
-        <v>149.816178436201</v>
+        <v>0.149816178436201</v>
       </c>
       <c r="M5" t="n">
         <v>2.48766900778491</v>
@@ -8890,7 +8890,7 @@
         <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>74.9080892181005</v>
+        <v>0.0749080892181005</v>
       </c>
       <c r="P5" t="n">
         <v>1.24383450389245</v>
@@ -8913,16 +8913,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.862269138</v>
+        <v>0.000862269138</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>9.28169147470398</v>
+        <v>0.00928169147470398</v>
       </c>
       <c r="H6" t="n">
-        <v>1.725319236</v>
+        <v>0.001725319236</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -8931,10 +8931,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>60.2235176654798</v>
+        <v>0.0602235176654798</v>
       </c>
       <c r="L6" t="n">
-        <v>149.816178436201</v>
+        <v>0.149816178436201</v>
       </c>
       <c r="M6" t="n">
         <v>2.48766900778491</v>
@@ -8943,7 +8943,7 @@
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>74.9080892181005</v>
+        <v>0.0749080892181005</v>
       </c>
       <c r="P6" t="n">
         <v>1.24383450389245</v>
@@ -8966,28 +8966,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>2.588369334</v>
+        <v>0.002588369334</v>
       </c>
       <c r="F7" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G7" t="n">
-        <v>27.8618873412271</v>
+        <v>0.0278618873412271</v>
       </c>
       <c r="H7" t="n">
-        <v>1.294184667</v>
+        <v>0.001294184667</v>
       </c>
       <c r="I7" t="n">
-        <v>13.9309436706136</v>
+        <v>0.0139309436706136</v>
       </c>
       <c r="J7" t="n">
-        <v>83.5856620236814</v>
+        <v>0.0835856620236814</v>
       </c>
       <c r="K7" t="n">
-        <v>60.2235176654798</v>
+        <v>0.0602235176654798</v>
       </c>
       <c r="L7" t="n">
-        <v>149.816178436201</v>
+        <v>0.149816178436201</v>
       </c>
       <c r="M7" t="n">
         <v>2.48766900778491</v>
@@ -8996,7 +8996,7 @@
         <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>74.9080892181005</v>
+        <v>0.0749080892181005</v>
       </c>
       <c r="P7" t="n">
         <v>1.24383450389245</v>
@@ -9086,16 +9086,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.445685669</v>
+        <v>0.000445685669</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.79747759956943</v>
+        <v>0.00479747759956943</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7291905905</v>
+        <v>0.0007291905905</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -9104,10 +9104,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>15.698398073197</v>
+        <v>0.015698398073197</v>
       </c>
       <c r="L2" t="n">
-        <v>10.9009204736276</v>
+        <v>0.0109009204736276</v>
       </c>
       <c r="M2" t="n">
         <v>0.694396996610724</v>
@@ -9116,7 +9116,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.81682007893793</v>
+        <v>0.00181682007893793</v>
       </c>
       <c r="P2" t="n">
         <v>0.115732832768454</v>
@@ -9139,28 +9139,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>1.012695512</v>
+        <v>0.001012695512</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>10.9009204736276</v>
+        <v>0.0109009204736276</v>
       </c>
       <c r="H3" t="n">
-        <v>0.506347756</v>
+        <v>0.000506347756</v>
       </c>
       <c r="I3" t="n">
-        <v>5.45046023681378</v>
+        <v>0.00545046023681378</v>
       </c>
       <c r="J3" t="n">
-        <v>10.9009204736276</v>
+        <v>0.0109009204736276</v>
       </c>
       <c r="K3" t="n">
-        <v>15.698398073197</v>
+        <v>0.015698398073197</v>
       </c>
       <c r="L3" t="n">
-        <v>10.9009204736276</v>
+        <v>0.0109009204736276</v>
       </c>
       <c r="M3" t="n">
         <v>0.694396996610724</v>
@@ -9169,7 +9169,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.81682007893793</v>
+        <v>0.00181682007893793</v>
       </c>
       <c r="P3" t="n">
         <v>0.115732832768454</v>
@@ -9259,28 +9259,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008</v>
+        <v>0.000008</v>
       </c>
       <c r="F2" t="n">
         <v>-124.8654467169</v>
       </c>
       <c r="G2" t="n">
-        <v>0.172228202368138</v>
+        <v>0.000172228202368138</v>
       </c>
       <c r="H2" t="n">
-        <v>0.123655902481422</v>
+        <v>0.000123655902481422</v>
       </c>
       <c r="I2" t="n">
-        <v>-15.4403495025241</v>
+        <v>-0.0154403495025241</v>
       </c>
       <c r="J2" t="n">
-        <v>-92.6420970151447</v>
+        <v>-0.0926420970151447</v>
       </c>
       <c r="K2" t="n">
-        <v>5201.14622601602</v>
+        <v>5.20114622601602</v>
       </c>
       <c r="L2" t="n">
-        <v>20467.663670931</v>
+        <v>20.467663670931</v>
       </c>
       <c r="M2" t="n">
         <v>3.93522173411549</v>
@@ -9289,7 +9289,7 @@
         <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>10233.8318354655</v>
+        <v>10.2338318354655</v>
       </c>
       <c r="P2" t="n">
         <v>1.96761086705775</v>
@@ -9312,28 +9312,28 @@
         <v>146.393972012917</v>
       </c>
       <c r="E3" t="n">
-        <v>0.239311804962843</v>
+        <v>0.000239311804962843</v>
       </c>
       <c r="F3" t="n">
         <v>-740.581270182993</v>
       </c>
       <c r="G3" t="n">
-        <v>35.0338056780911</v>
+        <v>0.0350338056780911</v>
       </c>
       <c r="H3" t="n">
-        <v>2.49369768004274</v>
+        <v>0.00249369768004274</v>
       </c>
       <c r="I3" t="n">
-        <v>-1846.78579533843</v>
+        <v>-1.84678579533843</v>
       </c>
       <c r="J3" t="n">
-        <v>-11080.7147720306</v>
+        <v>-11.0807147720306</v>
       </c>
       <c r="K3" t="n">
-        <v>5201.14622601602</v>
+        <v>5.20114622601602</v>
       </c>
       <c r="L3" t="n">
-        <v>20467.663670931</v>
+        <v>20.467663670931</v>
       </c>
       <c r="M3" t="n">
         <v>3.93522173411549</v>
@@ -9342,7 +9342,7 @@
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>10233.8318354655</v>
+        <v>10.2338318354655</v>
       </c>
       <c r="P3" t="n">
         <v>1.96761086705775</v>
@@ -9365,28 +9365,28 @@
         <v>886.97524219591</v>
       </c>
       <c r="E4" t="n">
-        <v>4.74808355512264</v>
+        <v>0.00474808355512264</v>
       </c>
       <c r="F4" t="n">
         <v>669.537136706136</v>
       </c>
       <c r="G4" t="n">
-        <v>4211.43256127132</v>
+        <v>4.21143256127132</v>
       </c>
       <c r="H4" t="n">
-        <v>4.24640447170211</v>
+        <v>0.00424640447170211</v>
       </c>
       <c r="I4" t="n">
-        <v>2843.12549127956</v>
+        <v>2.84312549127956</v>
       </c>
       <c r="J4" t="n">
-        <v>17058.7529476774</v>
+        <v>17.0587529476774</v>
       </c>
       <c r="K4" t="n">
-        <v>5201.14622601602</v>
+        <v>5.20114622601602</v>
       </c>
       <c r="L4" t="n">
-        <v>20467.663670931</v>
+        <v>20.467663670931</v>
       </c>
       <c r="M4" t="n">
         <v>3.93522173411549</v>
@@ -9395,7 +9395,7 @@
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>10233.8318354655</v>
+        <v>10.2338318354655</v>
       </c>
       <c r="P4" t="n">
         <v>1.96761086705775</v>
@@ -9418,28 +9418,28 @@
         <v>217.438105489774</v>
       </c>
       <c r="E5" t="n">
-        <v>3.74472538828159</v>
+        <v>0.00374472538828159</v>
       </c>
       <c r="F5" t="n">
         <v>168.998923573735</v>
       </c>
       <c r="G5" t="n">
-        <v>814.245994007406</v>
+        <v>0.814245994007406</v>
       </c>
       <c r="H5" t="n">
-        <v>2.95299581014079</v>
+        <v>0.00295299581014079</v>
       </c>
       <c r="I5" t="n">
-        <v>499.053113231544</v>
+        <v>0.499053113231544</v>
       </c>
       <c r="J5" t="n">
-        <v>2994.31867938926</v>
+        <v>2.99431867938926</v>
       </c>
       <c r="K5" t="n">
-        <v>5201.14622601602</v>
+        <v>5.20114622601602</v>
       </c>
       <c r="L5" t="n">
-        <v>20467.663670931</v>
+        <v>20.467663670931</v>
       </c>
       <c r="M5" t="n">
         <v>3.93522173411549</v>
@@ -9448,7 +9448,7 @@
         <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>10233.8318354655</v>
+        <v>10.2338318354655</v>
       </c>
       <c r="P5" t="n">
         <v>1.96761086705775</v>
@@ -9471,28 +9471,28 @@
         <v>48.4391819160388</v>
       </c>
       <c r="E6" t="n">
-        <v>2.161266232</v>
+        <v>0.002161266232</v>
       </c>
       <c r="F6" t="n">
         <v>26.9106566200215</v>
       </c>
       <c r="G6" t="n">
-        <v>104.68996818084</v>
+        <v>0.10468996818084</v>
       </c>
       <c r="H6" t="n">
-        <v>1.906785121</v>
+        <v>0.001906785121</v>
       </c>
       <c r="I6" t="n">
-        <v>51.3128396393972</v>
+        <v>0.0513128396393972</v>
       </c>
       <c r="J6" t="n">
-        <v>307.877037836383</v>
+        <v>0.307877037836383</v>
       </c>
       <c r="K6" t="n">
-        <v>5201.14622601602</v>
+        <v>5.20114622601602</v>
       </c>
       <c r="L6" t="n">
-        <v>20467.663670931</v>
+        <v>20.467663670931</v>
       </c>
       <c r="M6" t="n">
         <v>3.93522173411549</v>
@@ -9501,7 +9501,7 @@
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>10233.8318354655</v>
+        <v>10.2338318354655</v>
       </c>
       <c r="P6" t="n">
         <v>1.96761086705775</v>
@@ -9524,28 +9524,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E7" t="n">
-        <v>1.65230401</v>
+        <v>0.00165230401</v>
       </c>
       <c r="F7" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G7" t="n">
-        <v>35.5716686759957</v>
+        <v>0.0355716686759957</v>
       </c>
       <c r="H7" t="n">
-        <v>0.826152005</v>
+        <v>0.000826152005</v>
       </c>
       <c r="I7" t="n">
-        <v>17.7858343379978</v>
+        <v>0.0177858343379978</v>
       </c>
       <c r="J7" t="n">
-        <v>106.715006027987</v>
+        <v>0.106715006027987</v>
       </c>
       <c r="K7" t="n">
-        <v>5201.14622601602</v>
+        <v>5.20114622601602</v>
       </c>
       <c r="L7" t="n">
-        <v>20467.663670931</v>
+        <v>20.467663670931</v>
       </c>
       <c r="M7" t="n">
         <v>3.93522173411549</v>
@@ -9554,7 +9554,7 @@
         <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>10233.8318354655</v>
+        <v>10.2338318354655</v>
       </c>
       <c r="P7" t="n">
         <v>1.96761086705775</v>
@@ -9644,28 +9644,28 @@
         <v>16.1463939720129</v>
       </c>
       <c r="E2" t="n">
-        <v>0.005702371</v>
+        <v>0.000005702371</v>
       </c>
       <c r="F2" t="n">
         <v>5.38213132400431</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0920727287405813</v>
+        <v>0.0000920727287405813</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0047524385</v>
+        <v>0.0000047524385</v>
       </c>
       <c r="I2" t="n">
-        <v>0.025578248116254</v>
+        <v>0.000025578248116254</v>
       </c>
       <c r="J2" t="n">
-        <v>0.12789124058127</v>
+        <v>0.00012789124058127</v>
       </c>
       <c r="K2" t="n">
-        <v>0.255849381054898</v>
+        <v>0.000255849381054898</v>
       </c>
       <c r="L2" t="n">
-        <v>0.230279399892357</v>
+        <v>0.000230279399892357</v>
       </c>
       <c r="M2" t="n">
         <v>0.900058459953617</v>
@@ -9674,7 +9674,7 @@
         <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0959497499551489</v>
+        <v>0.0000959497499551489</v>
       </c>
       <c r="P2" t="n">
         <v>0.375024358314007</v>
@@ -9697,16 +9697,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003802506</v>
+        <v>0.000003802506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0409311733046286</v>
+        <v>0.0000409311733046286</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003802834</v>
+        <v>0.000003802834</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -9715,10 +9715,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.255849381054898</v>
+        <v>0.000255849381054898</v>
       </c>
       <c r="L3" t="n">
-        <v>0.230279399892357</v>
+        <v>0.000230279399892357</v>
       </c>
       <c r="M3" t="n">
         <v>0.900058459953617</v>
@@ -9727,7 +9727,7 @@
         <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0959497499551489</v>
+        <v>0.0000959497499551489</v>
       </c>
       <c r="P3" t="n">
         <v>0.375024358314007</v>
@@ -9750,16 +9750,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003803162</v>
+        <v>0.000003803162</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0409382346609257</v>
+        <v>0.0000409382346609257</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0038038005</v>
+        <v>0.0000038038005</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -9768,10 +9768,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.255849381054898</v>
+        <v>0.000255849381054898</v>
       </c>
       <c r="L4" t="n">
-        <v>0.230279399892357</v>
+        <v>0.000230279399892357</v>
       </c>
       <c r="M4" t="n">
         <v>0.900058459953617</v>
@@ -9780,7 +9780,7 @@
         <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0959497499551489</v>
+        <v>0.0000959497499551489</v>
       </c>
       <c r="P4" t="n">
         <v>0.375024358314007</v>
@@ -9803,16 +9803,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003804439</v>
+        <v>0.000003804439</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0409519806243272</v>
+        <v>0.0000409519806243272</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0038045915</v>
+        <v>0.0000038045915</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -9821,10 +9821,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.255849381054898</v>
+        <v>0.000255849381054898</v>
       </c>
       <c r="L5" t="n">
-        <v>0.230279399892357</v>
+        <v>0.000230279399892357</v>
       </c>
       <c r="M5" t="n">
         <v>0.900058459953617</v>
@@ -9833,7 +9833,7 @@
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0959497499551489</v>
+        <v>0.0000959497499551489</v>
       </c>
       <c r="P5" t="n">
         <v>0.375024358314007</v>
@@ -9856,28 +9856,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.003804744</v>
+        <v>0.000003804744</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0409552637244349</v>
+        <v>0.0000409552637244349</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001902372</v>
+        <v>0.000001902372</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0204776318622174</v>
+        <v>0.0000204776318622174</v>
       </c>
       <c r="J6" t="n">
-        <v>0.102388159311087</v>
+        <v>0.000102388159311087</v>
       </c>
       <c r="K6" t="n">
-        <v>0.255849381054898</v>
+        <v>0.000255849381054898</v>
       </c>
       <c r="L6" t="n">
-        <v>0.230279399892357</v>
+        <v>0.000230279399892357</v>
       </c>
       <c r="M6" t="n">
         <v>0.900058459953617</v>
@@ -9886,7 +9886,7 @@
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0959497499551489</v>
+        <v>0.0000959497499551489</v>
       </c>
       <c r="P6" t="n">
         <v>0.375024358314007</v>
@@ -9976,28 +9976,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0008</v>
+        <v>0.0000008</v>
       </c>
       <c r="F2" t="n">
         <v>-30.4987441693577</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00861141011840689</v>
+        <v>0.00000861141011840689</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0105588931666667</v>
+        <v>0.0000105588931666667</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.322032981401746</v>
+        <v>-0.000322032981401746</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.28813192560698</v>
+        <v>-0.00128813192560698</v>
       </c>
       <c r="K2" t="n">
-        <v>4.74870937148667</v>
+        <v>0.00474870937148666</v>
       </c>
       <c r="L2" t="n">
-        <v>13.279088482239</v>
+        <v>0.013279088482239</v>
       </c>
       <c r="M2" t="n">
         <v>2.7963573770112</v>
@@ -10006,7 +10006,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>4.42636282741299</v>
+        <v>0.00442636282741299</v>
       </c>
       <c r="P2" t="n">
         <v>0.932119125670401</v>
@@ -10029,28 +10029,28 @@
         <v>41.2630068173663</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0203177863333333</v>
+        <v>0.0000203177863333333</v>
       </c>
       <c r="F3" t="n">
         <v>-1.7940437746681</v>
       </c>
       <c r="G3" t="n">
-        <v>0.838372955986126</v>
+        <v>0.000838372955986126</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0421999451666667</v>
+        <v>0.0000421999451666667</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0757085489175937</v>
+        <v>-0.0000757085489175937</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.302834195670375</v>
+        <v>-0.000302834195670375</v>
       </c>
       <c r="K3" t="n">
-        <v>4.74870937148667</v>
+        <v>0.00474870937148666</v>
       </c>
       <c r="L3" t="n">
-        <v>13.279088482239</v>
+        <v>0.013279088482239</v>
       </c>
       <c r="M3" t="n">
         <v>2.7963573770112</v>
@@ -10059,7 +10059,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>4.42636282741299</v>
+        <v>0.00442636282741299</v>
       </c>
       <c r="P3" t="n">
         <v>0.932119125670401</v>
@@ -10082,28 +10082,28 @@
         <v>43.0570505920345</v>
       </c>
       <c r="E4" t="n">
-        <v>0.064082104</v>
+        <v>0.000064082104</v>
       </c>
       <c r="F4" t="n">
         <v>32.2927879440258</v>
       </c>
       <c r="G4" t="n">
-        <v>2.75918639397201</v>
+        <v>0.00275918639397201</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0851119705</v>
+        <v>0.0000851119705</v>
       </c>
       <c r="I4" t="n">
-        <v>2.74850281485468</v>
+        <v>0.00274850281485468</v>
       </c>
       <c r="J4" t="n">
-        <v>10.9940112594187</v>
+        <v>0.0109940112594187</v>
       </c>
       <c r="K4" t="n">
-        <v>4.74870937148667</v>
+        <v>0.00474870937148666</v>
       </c>
       <c r="L4" t="n">
-        <v>13.279088482239</v>
+        <v>0.013279088482239</v>
       </c>
       <c r="M4" t="n">
         <v>2.7963573770112</v>
@@ -10112,7 +10112,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>4.42636282741299</v>
+        <v>0.00442636282741299</v>
       </c>
       <c r="P4" t="n">
         <v>0.932119125670401</v>
@@ -10135,28 +10135,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.106141837</v>
+        <v>0.000106141837</v>
       </c>
       <c r="F5" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>1.14253861141012</v>
+        <v>0.00114253861141012</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0530709185</v>
+        <v>0.0000530709185</v>
       </c>
       <c r="I5" t="n">
-        <v>0.571269305705059</v>
+        <v>0.000571269305705059</v>
       </c>
       <c r="J5" t="n">
-        <v>2.28507722282024</v>
+        <v>0.00228507722282024</v>
       </c>
       <c r="K5" t="n">
-        <v>4.74870937148667</v>
+        <v>0.00474870937148666</v>
       </c>
       <c r="L5" t="n">
-        <v>13.279088482239</v>
+        <v>0.013279088482239</v>
       </c>
       <c r="M5" t="n">
         <v>2.7963573770112</v>
@@ -10165,7 +10165,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>4.42636282741299</v>
+        <v>0.00442636282741299</v>
       </c>
       <c r="P5" t="n">
         <v>0.932119125670401</v>
@@ -10255,28 +10255,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>90.52399138</v>
+        <v>0.09052399138</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>974.424019160388</v>
+        <v>0.974424019160388</v>
       </c>
       <c r="H2" t="n">
-        <v>45.26199569</v>
+        <v>0.04526199569</v>
       </c>
       <c r="I2" t="n">
-        <v>487.212009580194</v>
+        <v>0.487212009580194</v>
       </c>
       <c r="J2" t="n">
-        <v>487.212009580194</v>
+        <v>0.487212009580194</v>
       </c>
       <c r="K2" t="n">
-        <v>974.424019160388</v>
+        <v>0.974424019160388</v>
       </c>
       <c r="L2" t="n">
-        <v>487.212009580194</v>
+        <v>0.487212009580194</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -10285,7 +10285,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>40.6010007983495</v>
+        <v>0.0406010007983495</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -10375,28 +10375,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.046082948</v>
+        <v>0.000046082948</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.496048955866523</v>
+        <v>0.000496048955866523</v>
       </c>
       <c r="H2" t="n">
-        <v>0.023041474</v>
+        <v>0.000023041474</v>
       </c>
       <c r="I2" t="n">
-        <v>0.248024477933262</v>
+        <v>0.000248024477933262</v>
       </c>
       <c r="J2" t="n">
-        <v>0.248024477933262</v>
+        <v>0.000248024477933262</v>
       </c>
       <c r="K2" t="n">
-        <v>0.496048955866523</v>
+        <v>0.000496048955866523</v>
       </c>
       <c r="L2" t="n">
-        <v>0.248024477933262</v>
+        <v>0.000248024477933262</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -10405,7 +10405,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0206687064944385</v>
+        <v>0.0000206687064944385</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -10495,28 +10495,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2886962254</v>
+        <v>0.0002886962254</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>3.1076019956943</v>
+        <v>0.0031076019956943</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1443481127</v>
+        <v>0.0001443481127</v>
       </c>
       <c r="I2" t="n">
-        <v>1.55380099784715</v>
+        <v>0.00155380099784715</v>
       </c>
       <c r="J2" t="n">
-        <v>1.55380099784715</v>
+        <v>0.00155380099784715</v>
       </c>
       <c r="K2" t="n">
-        <v>3.1076019956943</v>
+        <v>0.0031076019956943</v>
       </c>
       <c r="L2" t="n">
-        <v>1.55380099784715</v>
+        <v>0.00155380099784715</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -10525,7 +10525,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.129483416487262</v>
+        <v>0.000129483416487262</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -10615,28 +10615,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00928</v>
+        <v>0.00000928</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0998923573735199</v>
+        <v>0.0000998923573735199</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00464</v>
+        <v>0.00000464</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04994617868676</v>
+        <v>0.00004994617868676</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04994617868676</v>
+        <v>0.00004994617868676</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0998923573735199</v>
+        <v>0.0000998923573735199</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04994617868676</v>
+        <v>0.00004994617868676</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -10645,7 +10645,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00416218155723</v>
+        <v>0.00000416218155723</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
@@ -10735,16 +10735,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.577752554</v>
+        <v>0.000577752554</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.21908023681378</v>
+        <v>0.00621908023681378</v>
       </c>
       <c r="H2" t="n">
-        <v>0.760709602</v>
+        <v>0.000760709602</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10753,10 +10753,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>16.3769559095802</v>
+        <v>0.0163769559095802</v>
       </c>
       <c r="L2" t="n">
-        <v>10.1578756727664</v>
+        <v>0.0101578756727664</v>
       </c>
       <c r="M2" t="n">
         <v>0.620254199183883</v>
@@ -10765,7 +10765,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.6929792787944</v>
+        <v>0.0016929792787944</v>
       </c>
       <c r="P2" t="n">
         <v>0.10337569986398</v>
@@ -10788,28 +10788,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.94366665</v>
+        <v>0.00094366665</v>
       </c>
       <c r="F3" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>10.1578756727664</v>
+        <v>0.0101578756727664</v>
       </c>
       <c r="H3" t="n">
-        <v>0.471833325</v>
+        <v>0.000471833325</v>
       </c>
       <c r="I3" t="n">
-        <v>5.07893783638321</v>
+        <v>0.00507893783638321</v>
       </c>
       <c r="J3" t="n">
-        <v>10.1578756727664</v>
+        <v>0.0101578756727664</v>
       </c>
       <c r="K3" t="n">
-        <v>16.3769559095802</v>
+        <v>0.0163769559095802</v>
       </c>
       <c r="L3" t="n">
-        <v>10.1578756727664</v>
+        <v>0.0101578756727664</v>
       </c>
       <c r="M3" t="n">
         <v>0.620254199183883</v>
@@ -10818,7 +10818,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.6929792787944</v>
+        <v>0.0016929792787944</v>
       </c>
       <c r="P3" t="n">
         <v>0.10337569986398</v>
@@ -10908,28 +10908,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.147858712</v>
+        <v>0.000147858712</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>3.18318002152853</v>
+        <v>0.00318318002152853</v>
       </c>
       <c r="H2" t="n">
-        <v>0.153270649</v>
+        <v>0.000153270649</v>
       </c>
       <c r="I2" t="n">
-        <v>1.64984552206674</v>
+        <v>0.00164984552206674</v>
       </c>
       <c r="J2" t="n">
-        <v>6.59938208826695</v>
+        <v>0.00659938208826695</v>
       </c>
       <c r="K2" t="n">
-        <v>59.8400863841048</v>
+        <v>0.0598400863841048</v>
       </c>
       <c r="L2" t="n">
-        <v>77.8852279727305</v>
+        <v>0.0778852279727305</v>
       </c>
       <c r="M2" t="n">
         <v>1.30155607518339</v>
@@ -10938,7 +10938,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>25.9617426575768</v>
+        <v>0.0259617426575768</v>
       </c>
       <c r="P2" t="n">
         <v>0.433852025061131</v>
@@ -10961,28 +10961,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.158682586</v>
+        <v>0.000158682586</v>
       </c>
       <c r="F3" t="n">
         <v>-16.1463939720129</v>
       </c>
       <c r="G3" t="n">
-        <v>1.70810103336921</v>
+        <v>0.00170810103336921</v>
       </c>
       <c r="H3" t="n">
-        <v>0.43804458775</v>
+        <v>0.00043804458775</v>
       </c>
       <c r="I3" t="n">
-        <v>-7.07284049111948</v>
+        <v>-0.00707284049111949</v>
       </c>
       <c r="J3" t="n">
-        <v>-28.2913619644779</v>
+        <v>-0.0282913619644779</v>
       </c>
       <c r="K3" t="n">
-        <v>59.8400863841048</v>
+        <v>0.0598400863841048</v>
       </c>
       <c r="L3" t="n">
-        <v>77.8852279727305</v>
+        <v>0.0778852279727305</v>
       </c>
       <c r="M3" t="n">
         <v>1.30155607518339</v>
@@ -10991,7 +10991,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>25.9617426575768</v>
+        <v>0.0259617426575768</v>
       </c>
       <c r="P3" t="n">
         <v>0.433852025061131</v>
@@ -11014,28 +11014,28 @@
         <v>26.9106566200215</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7174065895</v>
+        <v>0.0007174065895</v>
       </c>
       <c r="F4" t="n">
         <v>-1.7940437746681</v>
       </c>
       <c r="G4" t="n">
-        <v>19.3058823869752</v>
+        <v>0.0193058823869752</v>
       </c>
       <c r="H4" t="n">
-        <v>0.97955845875</v>
+        <v>0.00097955845875</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.75737075484391</v>
+        <v>-0.00175737075484391</v>
       </c>
       <c r="J4" t="n">
-        <v>-7.02948301937565</v>
+        <v>-0.00702948301937565</v>
       </c>
       <c r="K4" t="n">
-        <v>59.8400863841048</v>
+        <v>0.0598400863841048</v>
       </c>
       <c r="L4" t="n">
-        <v>77.8852279727305</v>
+        <v>0.0778852279727305</v>
       </c>
       <c r="M4" t="n">
         <v>1.30155607518339</v>
@@ -11044,7 +11044,7 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>25.9617426575768</v>
+        <v>0.0259617426575768</v>
       </c>
       <c r="P4" t="n">
         <v>0.433852025061131</v>
@@ -11067,28 +11067,28 @@
         <v>28.7047003946896</v>
       </c>
       <c r="E5" t="n">
-        <v>1.241710328</v>
+        <v>0.001241710328</v>
       </c>
       <c r="F5" t="n">
         <v>28.7047003946896</v>
       </c>
       <c r="G5" t="n">
-        <v>35.6429229422318</v>
+        <v>0.0356429229422318</v>
       </c>
       <c r="H5" t="n">
-        <v>0.620855164</v>
+        <v>0.000620855164</v>
       </c>
       <c r="I5" t="n">
-        <v>17.8214614711159</v>
+        <v>0.0178214614711159</v>
       </c>
       <c r="J5" t="n">
-        <v>71.2858458844636</v>
+        <v>0.0712858458844636</v>
       </c>
       <c r="K5" t="n">
-        <v>59.8400863841048</v>
+        <v>0.0598400863841048</v>
       </c>
       <c r="L5" t="n">
-        <v>77.8852279727305</v>
+        <v>0.0778852279727305</v>
       </c>
       <c r="M5" t="n">
         <v>1.30155607518339</v>
@@ -11097,7 +11097,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>25.9617426575768</v>
+        <v>0.0259617426575768</v>
       </c>
       <c r="P5" t="n">
         <v>0.433852025061131</v>
@@ -11187,28 +11187,28 @@
         <v>43.0570505920345</v>
       </c>
       <c r="E2" t="n">
-        <v>0.120491014</v>
+        <v>0.000120491014</v>
       </c>
       <c r="F2" t="n">
         <v>-32.2927879440258</v>
       </c>
       <c r="G2" t="n">
-        <v>5.18798768568353</v>
+        <v>0.00518798768568353</v>
       </c>
       <c r="H2" t="n">
-        <v>0.36526093825</v>
+        <v>0.00036526093825</v>
       </c>
       <c r="I2" t="n">
-        <v>-11.7952940231432</v>
+        <v>-0.0117952940231432</v>
       </c>
       <c r="J2" t="n">
-        <v>-165.134116324004</v>
+        <v>-0.165134116324004</v>
       </c>
       <c r="K2" t="n">
-        <v>8548.53255494567</v>
+        <v>8.54853255494567</v>
       </c>
       <c r="L2" t="n">
-        <v>33900.9844065236</v>
+        <v>33.9009844065236</v>
       </c>
       <c r="M2" t="n">
         <v>3.96570805440877</v>
@@ -11217,7 +11217,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="O2" t="n">
-        <v>39551.1484742775</v>
+        <v>39.5511484742775</v>
       </c>
       <c r="P2" t="n">
         <v>4.62665939681023</v>
@@ -11240,28 +11240,28 @@
         <v>75.3498385360603</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6100308625</v>
+        <v>0.0006100308625</v>
       </c>
       <c r="F3" t="n">
         <v>-5.38213132400431</v>
       </c>
       <c r="G3" t="n">
-        <v>45.9657269913886</v>
+        <v>0.0459657269913886</v>
       </c>
       <c r="H3" t="n">
-        <v>0.887008614660714</v>
+        <v>0.000887008614660714</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.77399684962709</v>
+        <v>-0.0047739968496271</v>
       </c>
       <c r="J3" t="n">
-        <v>-66.8359558947793</v>
+        <v>-0.0668359558947793</v>
       </c>
       <c r="K3" t="n">
-        <v>8548.53255494567</v>
+        <v>8.54853255494567</v>
       </c>
       <c r="L3" t="n">
-        <v>33900.9844065236</v>
+        <v>33.9009844065236</v>
       </c>
       <c r="M3" t="n">
         <v>3.96570805440877</v>
@@ -11270,7 +11270,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="O3" t="n">
-        <v>39551.1484742775</v>
+        <v>39.5511484742775</v>
       </c>
       <c r="P3" t="n">
         <v>4.62665939681023</v>
@@ -11293,28 +11293,28 @@
         <v>80.7319698600646</v>
       </c>
       <c r="E4" t="n">
-        <v>1.16398636682143</v>
+        <v>0.00116398636682143</v>
       </c>
       <c r="F4" t="n">
         <v>-107.642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>93.9709122837536</v>
+        <v>0.0939709122837537</v>
       </c>
       <c r="H4" t="n">
-        <v>3.48939825991071</v>
+        <v>0.00348939825991071</v>
       </c>
       <c r="I4" t="n">
-        <v>-375.607993531831</v>
+        <v>-0.375607993531831</v>
       </c>
       <c r="J4" t="n">
-        <v>-5258.51190944564</v>
+        <v>-5.25851190944564</v>
       </c>
       <c r="K4" t="n">
-        <v>8548.53255494567</v>
+        <v>8.54853255494567</v>
       </c>
       <c r="L4" t="n">
-        <v>33900.9844065236</v>
+        <v>33.9009844065236</v>
       </c>
       <c r="M4" t="n">
         <v>3.96570805440877</v>
@@ -11323,7 +11323,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="O4" t="n">
-        <v>39551.1484742775</v>
+        <v>39.5511484742775</v>
       </c>
       <c r="P4" t="n">
         <v>4.62665939681023</v>
@@ -11346,28 +11346,28 @@
         <v>188.374596340151</v>
       </c>
       <c r="E5" t="n">
-        <v>5.814810153</v>
+        <v>0.005814810153</v>
       </c>
       <c r="F5" t="n">
         <v>37.6749192680301</v>
       </c>
       <c r="G5" t="n">
-        <v>1095.36251536599</v>
+        <v>1.09536251536598</v>
       </c>
       <c r="H5" t="n">
-        <v>6.657570247375</v>
+        <v>0.006657570247375</v>
       </c>
       <c r="I5" t="n">
-        <v>250.823421591092</v>
+        <v>0.250823421591092</v>
       </c>
       <c r="J5" t="n">
-        <v>3511.5279022753</v>
+        <v>3.51152790227529</v>
       </c>
       <c r="K5" t="n">
-        <v>8548.53255494567</v>
+        <v>8.54853255494567</v>
       </c>
       <c r="L5" t="n">
-        <v>33900.9844065236</v>
+        <v>33.9009844065236</v>
       </c>
       <c r="M5" t="n">
         <v>3.96570805440877</v>
@@ -11376,7 +11376,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="O5" t="n">
-        <v>39551.1484742775</v>
+        <v>39.5511484742775</v>
       </c>
       <c r="P5" t="n">
         <v>4.62665939681023</v>
@@ -11399,28 +11399,28 @@
         <v>150.699677072121</v>
       </c>
       <c r="E6" t="n">
-        <v>7.50033034175</v>
+        <v>0.00750033034175</v>
       </c>
       <c r="F6" t="n">
         <v>32.2927879440258</v>
       </c>
       <c r="G6" t="n">
-        <v>1130.29736043595</v>
+        <v>1.13029736043595</v>
       </c>
       <c r="H6" t="n">
-        <v>8.16297929304167</v>
+        <v>0.00816297929304166</v>
       </c>
       <c r="I6" t="n">
-        <v>263.605359301668</v>
+        <v>0.263605359301669</v>
       </c>
       <c r="J6" t="n">
-        <v>3690.47503022336</v>
+        <v>3.69047503022336</v>
       </c>
       <c r="K6" t="n">
-        <v>8548.53255494567</v>
+        <v>8.54853255494567</v>
       </c>
       <c r="L6" t="n">
-        <v>33900.9844065236</v>
+        <v>33.9009844065236</v>
       </c>
       <c r="M6" t="n">
         <v>3.96570805440877</v>
@@ -11429,7 +11429,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="O6" t="n">
-        <v>39551.1484742775</v>
+        <v>39.5511484742775</v>
       </c>
       <c r="P6" t="n">
         <v>4.62665939681023</v>
@@ -11452,28 +11452,28 @@
         <v>118.406889128095</v>
       </c>
       <c r="E7" t="n">
-        <v>8.82562824433333</v>
+        <v>0.00882562824433333</v>
       </c>
       <c r="F7" t="n">
         <v>46.6451381413706</v>
       </c>
       <c r="G7" t="n">
-        <v>1045.01518501256</v>
+        <v>1.04501518501256</v>
       </c>
       <c r="H7" t="n">
-        <v>8.20745421658333</v>
+        <v>0.00820745421658333</v>
       </c>
       <c r="I7" t="n">
-        <v>382.837835721504</v>
+        <v>0.382837835721504</v>
       </c>
       <c r="J7" t="n">
-        <v>5359.72970010106</v>
+        <v>5.35972970010106</v>
       </c>
       <c r="K7" t="n">
-        <v>8548.53255494567</v>
+        <v>8.54853255494567</v>
       </c>
       <c r="L7" t="n">
-        <v>33900.9844065236</v>
+        <v>33.9009844065236</v>
       </c>
       <c r="M7" t="n">
         <v>3.96570805440877</v>
@@ -11482,7 +11482,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="O7" t="n">
-        <v>39551.1484742775</v>
+        <v>39.5511484742775</v>
       </c>
       <c r="P7" t="n">
         <v>4.62665939681023</v>
@@ -11505,28 +11505,28 @@
         <v>71.7617509867241</v>
       </c>
       <c r="E8" t="n">
-        <v>7.58928018883333</v>
+        <v>0.00758928018883333</v>
       </c>
       <c r="F8" t="n">
         <v>28.7047003946896</v>
       </c>
       <c r="G8" t="n">
-        <v>544.620035079536</v>
+        <v>0.544620035079536</v>
       </c>
       <c r="H8" t="n">
-        <v>6.89449560041667</v>
+        <v>0.00689449560041667</v>
       </c>
       <c r="I8" t="n">
-        <v>197.904430582466</v>
+        <v>0.197904430582466</v>
       </c>
       <c r="J8" t="n">
-        <v>2770.66202815453</v>
+        <v>2.77066202815453</v>
       </c>
       <c r="K8" t="n">
-        <v>8548.53255494567</v>
+        <v>8.54853255494567</v>
       </c>
       <c r="L8" t="n">
-        <v>33900.9844065236</v>
+        <v>33.9009844065236</v>
       </c>
       <c r="M8" t="n">
         <v>3.96570805440877</v>
@@ -11535,7 +11535,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="O8" t="n">
-        <v>39551.1484742775</v>
+        <v>39.5511484742775</v>
       </c>
       <c r="P8" t="n">
         <v>4.62665939681023</v>
@@ -11558,28 +11558,28 @@
         <v>43.0570505920345</v>
       </c>
       <c r="E9" t="n">
-        <v>6.199711012</v>
+        <v>0.006199711012</v>
       </c>
       <c r="F9" t="n">
         <v>-19.7344815213491</v>
       </c>
       <c r="G9" t="n">
-        <v>266.941270699677</v>
+        <v>0.266941270699677</v>
       </c>
       <c r="H9" t="n">
-        <v>9.05761377954167</v>
+        <v>0.00905761377954167</v>
       </c>
       <c r="I9" t="n">
-        <v>-178.747311759882</v>
+        <v>-0.178747311759882</v>
       </c>
       <c r="J9" t="n">
-        <v>-2502.46236463835</v>
+        <v>-2.50246236463835</v>
       </c>
       <c r="K9" t="n">
-        <v>8548.53255494567</v>
+        <v>8.54853255494567</v>
       </c>
       <c r="L9" t="n">
-        <v>33900.9844065236</v>
+        <v>33.9009844065236</v>
       </c>
       <c r="M9" t="n">
         <v>3.96570805440877</v>
@@ -11588,7 +11588,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="O9" t="n">
-        <v>39551.1484742775</v>
+        <v>39.5511484742775</v>
       </c>
       <c r="P9" t="n">
         <v>4.62665939681023</v>
@@ -11611,28 +11611,28 @@
         <v>62.7915321133836</v>
       </c>
       <c r="E10" t="n">
-        <v>11.9155165470833</v>
+        <v>0.0119155165470833</v>
       </c>
       <c r="F10" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G10" t="n">
-        <v>748.193539913736</v>
+        <v>0.748193539913736</v>
       </c>
       <c r="H10" t="n">
-        <v>12.2944366839583</v>
+        <v>0.0122944366839583</v>
       </c>
       <c r="I10" t="n">
-        <v>132.34054557544</v>
+        <v>0.13234054557544</v>
       </c>
       <c r="J10" t="n">
-        <v>1852.76763805615</v>
+        <v>1.85276763805615</v>
       </c>
       <c r="K10" t="n">
-        <v>8548.53255494567</v>
+        <v>8.54853255494567</v>
       </c>
       <c r="L10" t="n">
-        <v>33900.9844065236</v>
+        <v>33.9009844065236</v>
       </c>
       <c r="M10" t="n">
         <v>3.96570805440877</v>
@@ -11641,7 +11641,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="O10" t="n">
-        <v>39551.1484742775</v>
+        <v>39.5511484742775</v>
       </c>
       <c r="P10" t="n">
         <v>4.62665939681023</v>
@@ -11664,28 +11664,28 @@
         <v>52.027269465375</v>
       </c>
       <c r="E11" t="n">
-        <v>12.6733568208333</v>
+        <v>0.0126733568208333</v>
       </c>
       <c r="F11" t="n">
         <v>-26.9106566200215</v>
       </c>
       <c r="G11" t="n">
-        <v>659.360150348343</v>
+        <v>0.659360150348343</v>
       </c>
       <c r="H11" t="n">
-        <v>18.4126581335</v>
+        <v>0.0184126581335</v>
       </c>
       <c r="I11" t="n">
-        <v>-495.496720492465</v>
+        <v>-0.495496720492465</v>
       </c>
       <c r="J11" t="n">
-        <v>-6936.95408689451</v>
+        <v>-6.93695408689451</v>
       </c>
       <c r="K11" t="n">
-        <v>8548.53255494567</v>
+        <v>8.54853255494567</v>
       </c>
       <c r="L11" t="n">
-        <v>33900.9844065236</v>
+        <v>33.9009844065236</v>
       </c>
       <c r="M11" t="n">
         <v>3.96570805440877</v>
@@ -11694,7 +11694,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="O11" t="n">
-        <v>39551.1484742775</v>
+        <v>39.5511484742775</v>
       </c>
       <c r="P11" t="n">
         <v>4.62665939681023</v>
@@ -11717,28 +11717,28 @@
         <v>78.9379260853965</v>
       </c>
       <c r="E12" t="n">
-        <v>24.1519594461667</v>
+        <v>0.0241519594461667</v>
       </c>
       <c r="F12" t="n">
         <v>35.8808754933621</v>
       </c>
       <c r="G12" t="n">
-        <v>1906.505589579</v>
+        <v>1.906505589579</v>
       </c>
       <c r="H12" t="n">
-        <v>20.1997504630833</v>
+        <v>0.0201997504630833</v>
       </c>
       <c r="I12" t="n">
-        <v>724.784731362876</v>
+        <v>0.724784731362876</v>
       </c>
       <c r="J12" t="n">
-        <v>10146.9862390803</v>
+        <v>10.1469862390803</v>
       </c>
       <c r="K12" t="n">
-        <v>8548.53255494567</v>
+        <v>8.54853255494567</v>
       </c>
       <c r="L12" t="n">
-        <v>33900.9844065236</v>
+        <v>33.9009844065236</v>
       </c>
       <c r="M12" t="n">
         <v>3.96570805440877</v>
@@ -11747,7 +11747,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="O12" t="n">
-        <v>39551.1484742775</v>
+        <v>39.5511484742775</v>
       </c>
       <c r="P12" t="n">
         <v>4.62665939681023</v>
@@ -11770,28 +11770,28 @@
         <v>43.0570505920344</v>
       </c>
       <c r="E13" t="n">
-        <v>16.24754148</v>
+        <v>0.01624754148</v>
       </c>
       <c r="F13" t="n">
         <v>32.2927879440258</v>
       </c>
       <c r="G13" t="n">
-        <v>699.571215500538</v>
+        <v>0.699571215500538</v>
       </c>
       <c r="H13" t="n">
-        <v>10.589932378</v>
+        <v>0.010589932378</v>
       </c>
       <c r="I13" t="n">
-        <v>341.978440624327</v>
+        <v>0.341978440624327</v>
       </c>
       <c r="J13" t="n">
-        <v>4787.69816874058</v>
+        <v>4.78769816874058</v>
       </c>
       <c r="K13" t="n">
-        <v>8548.53255494567</v>
+        <v>8.54853255494567</v>
       </c>
       <c r="L13" t="n">
-        <v>33900.9844065236</v>
+        <v>33.9009844065236</v>
       </c>
       <c r="M13" t="n">
         <v>3.96570805440877</v>
@@ -11800,7 +11800,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="O13" t="n">
-        <v>39551.1484742775</v>
+        <v>39.5511484742775</v>
       </c>
       <c r="P13" t="n">
         <v>4.62665939681023</v>
@@ -11823,28 +11823,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E14" t="n">
-        <v>4.932323276</v>
+        <v>0.004932323276</v>
       </c>
       <c r="F14" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G14" t="n">
-        <v>53.0928232077503</v>
+        <v>0.0530928232077503</v>
       </c>
       <c r="H14" t="n">
-        <v>8.375722078</v>
+        <v>0.008375722078</v>
       </c>
       <c r="I14" t="n">
-        <v>-90.1584723143165</v>
+        <v>-0.0901584723143165</v>
       </c>
       <c r="J14" t="n">
-        <v>-1262.21861240043</v>
+        <v>-1.26221861240043</v>
       </c>
       <c r="K14" t="n">
-        <v>8548.53255494567</v>
+        <v>8.54853255494567</v>
       </c>
       <c r="L14" t="n">
-        <v>33900.9844065236</v>
+        <v>33.9009844065236</v>
       </c>
       <c r="M14" t="n">
         <v>3.96570805440877</v>
@@ -11853,7 +11853,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="O14" t="n">
-        <v>39551.1484742775</v>
+        <v>39.5511484742775</v>
       </c>
       <c r="P14" t="n">
         <v>4.62665939681023</v>
@@ -11876,28 +11876,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E15" t="n">
-        <v>11.81912088</v>
+        <v>0.01181912088</v>
       </c>
       <c r="F15" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G15" t="n">
-        <v>254.448242841765</v>
+        <v>0.254448242841765</v>
       </c>
       <c r="H15" t="n">
-        <v>5.90956044</v>
+        <v>0.00590956044</v>
       </c>
       <c r="I15" t="n">
-        <v>127.224121420883</v>
+        <v>0.127224121420883</v>
       </c>
       <c r="J15" t="n">
-        <v>1781.13769989236</v>
+        <v>1.78113769989236</v>
       </c>
       <c r="K15" t="n">
-        <v>8548.53255494567</v>
+        <v>8.54853255494567</v>
       </c>
       <c r="L15" t="n">
-        <v>33900.9844065236</v>
+        <v>33.9009844065236</v>
       </c>
       <c r="M15" t="n">
         <v>3.96570805440877</v>
@@ -11906,7 +11906,7 @@
         <v>0.857142857142857</v>
       </c>
       <c r="O15" t="n">
-        <v>39551.1484742775</v>
+        <v>39.5511484742775</v>
       </c>
       <c r="P15" t="n">
         <v>4.62665939681023</v>
